--- a/SimulationStudyData/Model1Baseline_Ysim.xlsx
+++ b/SimulationStudyData/Model1Baseline_Ysim.xlsx
@@ -407,962 +407,962 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.57862066307663</v>
+        <v>6.68324037362208</v>
       </c>
       <c r="B2" t="n">
-        <v>5.11138911953215</v>
+        <v>6.40896565068343</v>
       </c>
       <c r="C2" t="n">
-        <v>5.06027087353734</v>
+        <v>7.09536015194641</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1983899588927</v>
+        <v>9.40249661355259</v>
       </c>
       <c r="E2" t="n">
-        <v>7.30026201232858</v>
+        <v>9.97942299408541</v>
       </c>
       <c r="F2" t="n">
-        <v>7.38515919158412</v>
+        <v>11.4273804190352</v>
       </c>
       <c r="G2" t="n">
-        <v>8.18926667872628</v>
+        <v>13.0146217992249</v>
       </c>
       <c r="H2" t="n">
-        <v>8.72456773194005</v>
+        <v>12.8743778374995</v>
       </c>
       <c r="I2" t="n">
-        <v>10.0377455002332</v>
+        <v>13.9124695114859</v>
       </c>
       <c r="J2" t="n">
-        <v>10.2608996058667</v>
+        <v>15.108448472147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.60818174603613</v>
+        <v>6.94815042678719</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03313807552655</v>
+        <v>7.53900176553242</v>
       </c>
       <c r="C3" t="n">
-        <v>6.79524519410264</v>
+        <v>9.55765331899102</v>
       </c>
       <c r="D3" t="n">
-        <v>5.88326297424526</v>
+        <v>8.71125700709352</v>
       </c>
       <c r="E3" t="n">
-        <v>6.1624757676448</v>
+        <v>10.5270762910226</v>
       </c>
       <c r="F3" t="n">
-        <v>7.42866176830543</v>
+        <v>10.1670987887451</v>
       </c>
       <c r="G3" t="n">
-        <v>9.03657629240933</v>
+        <v>13.4781695091327</v>
       </c>
       <c r="H3" t="n">
-        <v>8.22377592887115</v>
+        <v>12.7902799142111</v>
       </c>
       <c r="I3" t="n">
-        <v>9.19740956114829</v>
+        <v>14.2677732051284</v>
       </c>
       <c r="J3" t="n">
-        <v>10.3394500139372</v>
+        <v>15.2961314559436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.32590928223978</v>
+        <v>6.2658373870685</v>
       </c>
       <c r="B4" t="n">
-        <v>5.36654604692837</v>
+        <v>6.35067674079301</v>
       </c>
       <c r="C4" t="n">
-        <v>5.53069939246959</v>
+        <v>7.20749352374374</v>
       </c>
       <c r="D4" t="n">
-        <v>6.11452609952922</v>
+        <v>8.52350345177699</v>
       </c>
       <c r="E4" t="n">
-        <v>6.70551858028682</v>
+        <v>10.4774585908754</v>
       </c>
       <c r="F4" t="n">
-        <v>8.38363094061488</v>
+        <v>11.3445180766307</v>
       </c>
       <c r="G4" t="n">
-        <v>8.11281684281265</v>
+        <v>11.650566916802</v>
       </c>
       <c r="H4" t="n">
-        <v>9.58184083232806</v>
+        <v>12.5517176140853</v>
       </c>
       <c r="I4" t="n">
-        <v>9.65534076582719</v>
+        <v>12.5754096297347</v>
       </c>
       <c r="J4" t="n">
-        <v>8.37199882609919</v>
+        <v>13.9168612593759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.27866007425361</v>
+        <v>5.51671430931206</v>
       </c>
       <c r="B5" t="n">
-        <v>6.37230003777379</v>
+        <v>7.77883847490025</v>
       </c>
       <c r="C5" t="n">
-        <v>5.99010504224915</v>
+        <v>6.98380966885864</v>
       </c>
       <c r="D5" t="n">
-        <v>5.97308869873598</v>
+        <v>8.0516840421597</v>
       </c>
       <c r="E5" t="n">
-        <v>6.50612998435995</v>
+        <v>9.43563674979984</v>
       </c>
       <c r="F5" t="n">
-        <v>6.84154272739417</v>
+        <v>11.3852490029668</v>
       </c>
       <c r="G5" t="n">
-        <v>7.08867545856734</v>
+        <v>11.6303990528498</v>
       </c>
       <c r="H5" t="n">
-        <v>8.28598068278518</v>
+        <v>13.4216519537777</v>
       </c>
       <c r="I5" t="n">
-        <v>8.7285547681812</v>
+        <v>14.4450409172263</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3670100437361</v>
+        <v>14.4100759266299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.78406511375729</v>
+        <v>6.07673709954351</v>
       </c>
       <c r="B6" t="n">
-        <v>4.86973566356898</v>
+        <v>8.03017864301194</v>
       </c>
       <c r="C6" t="n">
-        <v>5.63549850951267</v>
+        <v>7.96162195364813</v>
       </c>
       <c r="D6" t="n">
-        <v>8.21436860489496</v>
+        <v>8.88556406416885</v>
       </c>
       <c r="E6" t="n">
-        <v>5.99459738449526</v>
+        <v>9.15852233275792</v>
       </c>
       <c r="F6" t="n">
-        <v>8.28525359307382</v>
+        <v>9.73260904628491</v>
       </c>
       <c r="G6" t="n">
-        <v>8.82349344732576</v>
+        <v>11.4783961928477</v>
       </c>
       <c r="H6" t="n">
-        <v>7.97908043642441</v>
+        <v>14.331981631489</v>
       </c>
       <c r="I6" t="n">
-        <v>8.04999565305987</v>
+        <v>13.7026772479843</v>
       </c>
       <c r="J6" t="n">
-        <v>9.96863750064024</v>
+        <v>14.3258475690287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.77255183411138</v>
+        <v>7.23694587520799</v>
       </c>
       <c r="B7" t="n">
-        <v>6.18023114984317</v>
+        <v>5.6914967188608</v>
       </c>
       <c r="C7" t="n">
-        <v>5.59264313386561</v>
+        <v>7.73719983292156</v>
       </c>
       <c r="D7" t="n">
-        <v>7.22407711072145</v>
+        <v>8.83210161167929</v>
       </c>
       <c r="E7" t="n">
-        <v>6.43527142742887</v>
+        <v>10.4295274847826</v>
       </c>
       <c r="F7" t="n">
-        <v>6.92020079328368</v>
+        <v>9.70057173871201</v>
       </c>
       <c r="G7" t="n">
-        <v>7.79922138334379</v>
+        <v>11.8903214901538</v>
       </c>
       <c r="H7" t="n">
-        <v>7.93280224227324</v>
+        <v>11.3762632000057</v>
       </c>
       <c r="I7" t="n">
-        <v>9.56303463093805</v>
+        <v>13.4788390586642</v>
       </c>
       <c r="J7" t="n">
-        <v>9.4000916083137</v>
+        <v>14.8076453389927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.4402378807115</v>
+        <v>6.43554117479088</v>
       </c>
       <c r="B8" t="n">
-        <v>6.44908929224338</v>
+        <v>8.05740107274669</v>
       </c>
       <c r="C8" t="n">
-        <v>6.4931787245483</v>
+        <v>7.67131409031823</v>
       </c>
       <c r="D8" t="n">
-        <v>6.93388299683689</v>
+        <v>8.09810799082696</v>
       </c>
       <c r="E8" t="n">
-        <v>7.42624209940271</v>
+        <v>10.2355664276488</v>
       </c>
       <c r="F8" t="n">
-        <v>8.86434538449744</v>
+        <v>10.7911951629152</v>
       </c>
       <c r="G8" t="n">
-        <v>6.70694563428603</v>
+        <v>11.3269150096018</v>
       </c>
       <c r="H8" t="n">
-        <v>8.7804933159304</v>
+        <v>12.5618439469409</v>
       </c>
       <c r="I8" t="n">
-        <v>9.29235704081203</v>
+        <v>13.8800121744184</v>
       </c>
       <c r="J8" t="n">
-        <v>8.9704679581394</v>
+        <v>14.2011618937302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.71800696025393</v>
+        <v>6.4851130570182</v>
       </c>
       <c r="B9" t="n">
-        <v>6.43401607596565</v>
+        <v>6.74039934704745</v>
       </c>
       <c r="C9" t="n">
-        <v>7.20164967315</v>
+        <v>7.52568052529988</v>
       </c>
       <c r="D9" t="n">
-        <v>6.25440491773525</v>
+        <v>7.79713254337035</v>
       </c>
       <c r="E9" t="n">
-        <v>6.14489798115741</v>
+        <v>10.5709897714061</v>
       </c>
       <c r="F9" t="n">
-        <v>6.69292471747375</v>
+        <v>10.9857069351065</v>
       </c>
       <c r="G9" t="n">
-        <v>7.33693215043697</v>
+        <v>11.8737904353043</v>
       </c>
       <c r="H9" t="n">
-        <v>7.38258633815471</v>
+        <v>12.3484379034526</v>
       </c>
       <c r="I9" t="n">
-        <v>9.51363535671852</v>
+        <v>13.7531041214064</v>
       </c>
       <c r="J9" t="n">
-        <v>11.1064907321742</v>
+        <v>15.7381900962008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.0937937936826</v>
+        <v>4.66044756068151</v>
       </c>
       <c r="B10" t="n">
-        <v>5.31959433275354</v>
+        <v>7.01397953529841</v>
       </c>
       <c r="C10" t="n">
-        <v>8.035067897425</v>
+        <v>7.76048497155342</v>
       </c>
       <c r="D10" t="n">
-        <v>6.99729151376027</v>
+        <v>9.02942844246301</v>
       </c>
       <c r="E10" t="n">
-        <v>7.40764185930851</v>
+        <v>9.02242588310552</v>
       </c>
       <c r="F10" t="n">
-        <v>6.14330828785838</v>
+        <v>11.4083899971943</v>
       </c>
       <c r="G10" t="n">
-        <v>7.69519979625338</v>
+        <v>12.3573587293143</v>
       </c>
       <c r="H10" t="n">
-        <v>8.80879254654171</v>
+        <v>13.7344974407768</v>
       </c>
       <c r="I10" t="n">
-        <v>8.86841692934057</v>
+        <v>13.76188211949</v>
       </c>
       <c r="J10" t="n">
-        <v>9.83768537932783</v>
+        <v>15.9399782558151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.09334966414982</v>
+        <v>6.68378659120821</v>
       </c>
       <c r="B11" t="n">
-        <v>5.68209976474818</v>
+        <v>5.95241574142731</v>
       </c>
       <c r="C11" t="n">
-        <v>6.80646457525835</v>
+        <v>8.60138605703421</v>
       </c>
       <c r="D11" t="n">
-        <v>7.07599833989971</v>
+        <v>8.86709572172175</v>
       </c>
       <c r="E11" t="n">
-        <v>8.38413064518438</v>
+        <v>10.3378696425878</v>
       </c>
       <c r="F11" t="n">
-        <v>6.78308005530443</v>
+        <v>11.4339977310152</v>
       </c>
       <c r="G11" t="n">
-        <v>6.81114377354096</v>
+        <v>11.6903130046505</v>
       </c>
       <c r="H11" t="n">
-        <v>8.25252968672986</v>
+        <v>12.3659559497891</v>
       </c>
       <c r="I11" t="n">
-        <v>8.91167214390271</v>
+        <v>13.6201110946499</v>
       </c>
       <c r="J11" t="n">
-        <v>9.53114189330138</v>
+        <v>14.715270108658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.66515314088844</v>
+        <v>5.85590047666555</v>
       </c>
       <c r="B12" t="n">
-        <v>6.12165081357939</v>
+        <v>7.03405663039731</v>
       </c>
       <c r="C12" t="n">
-        <v>6.54731721219302</v>
+        <v>8.41187907577057</v>
       </c>
       <c r="D12" t="n">
-        <v>7.22499728992971</v>
+        <v>8.38546691858745</v>
       </c>
       <c r="E12" t="n">
-        <v>5.56964959139657</v>
+        <v>10.9504442918369</v>
       </c>
       <c r="F12" t="n">
-        <v>7.10951311125745</v>
+        <v>10.8503546649433</v>
       </c>
       <c r="G12" t="n">
-        <v>7.97228457076237</v>
+        <v>11.2430764214693</v>
       </c>
       <c r="H12" t="n">
-        <v>9.16688453819317</v>
+        <v>13.0143532507288</v>
       </c>
       <c r="I12" t="n">
-        <v>8.80568742082493</v>
+        <v>13.9144375619036</v>
       </c>
       <c r="J12" t="n">
-        <v>9.28818399903632</v>
+        <v>15.2143479132517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.59376030589689</v>
+        <v>6.67564208548783</v>
       </c>
       <c r="B13" t="n">
-        <v>6.19217546443666</v>
+        <v>7.60514680478798</v>
       </c>
       <c r="C13" t="n">
-        <v>5.51430574491401</v>
+        <v>8.47578706008197</v>
       </c>
       <c r="D13" t="n">
-        <v>6.32204633140273</v>
+        <v>9.16945905998386</v>
       </c>
       <c r="E13" t="n">
-        <v>7.72727880787646</v>
+        <v>12.2081597459939</v>
       </c>
       <c r="F13" t="n">
-        <v>7.64387664021812</v>
+        <v>10.2880331641513</v>
       </c>
       <c r="G13" t="n">
-        <v>7.65704808672736</v>
+        <v>12.4491149218861</v>
       </c>
       <c r="H13" t="n">
-        <v>8.23397343561482</v>
+        <v>12.5130488420457</v>
       </c>
       <c r="I13" t="n">
-        <v>9.04103539239176</v>
+        <v>14.165850930743</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0658701465469</v>
+        <v>13.6269947655129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.19865235191739</v>
+        <v>4.38075999281055</v>
       </c>
       <c r="B14" t="n">
-        <v>3.88789542989735</v>
+        <v>5.81642842759602</v>
       </c>
       <c r="C14" t="n">
-        <v>5.1693062604413</v>
+        <v>8.31272668870975</v>
       </c>
       <c r="D14" t="n">
-        <v>6.82942568771825</v>
+        <v>8.72707974872862</v>
       </c>
       <c r="E14" t="n">
-        <v>6.72033293088201</v>
+        <v>8.78107489074712</v>
       </c>
       <c r="F14" t="n">
-        <v>8.08566568924278</v>
+        <v>12.2141116346363</v>
       </c>
       <c r="G14" t="n">
-        <v>6.95673646101699</v>
+        <v>11.5198038851249</v>
       </c>
       <c r="H14" t="n">
-        <v>7.51789326281736</v>
+        <v>13.4948625811579</v>
       </c>
       <c r="I14" t="n">
-        <v>8.74141373302042</v>
+        <v>13.9306892515255</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0311250610973</v>
+        <v>15.3557719359965</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.22529046170478</v>
+        <v>4.83521315068403</v>
       </c>
       <c r="B15" t="n">
-        <v>4.99871217182723</v>
+        <v>6.65240124200651</v>
       </c>
       <c r="C15" t="n">
-        <v>5.35155516446903</v>
+        <v>6.79456059821877</v>
       </c>
       <c r="D15" t="n">
-        <v>4.72118976316204</v>
+        <v>9.66661781877806</v>
       </c>
       <c r="E15" t="n">
-        <v>5.66460198360457</v>
+        <v>10.4879696988479</v>
       </c>
       <c r="F15" t="n">
-        <v>7.16754492891892</v>
+        <v>10.754929079658</v>
       </c>
       <c r="G15" t="n">
-        <v>8.25530089984668</v>
+        <v>12.0839076197448</v>
       </c>
       <c r="H15" t="n">
-        <v>9.26577251875413</v>
+        <v>13.3419679531776</v>
       </c>
       <c r="I15" t="n">
-        <v>9.59214239082708</v>
+        <v>14.1316197323475</v>
       </c>
       <c r="J15" t="n">
-        <v>9.16955310220707</v>
+        <v>13.975651269816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.74164097522397</v>
+        <v>5.74520370238066</v>
       </c>
       <c r="B16" t="n">
-        <v>4.94826561442842</v>
+        <v>7.17153903726717</v>
       </c>
       <c r="C16" t="n">
-        <v>5.42405552205577</v>
+        <v>7.89200840513719</v>
       </c>
       <c r="D16" t="n">
-        <v>5.65402560604547</v>
+        <v>9.84099016799093</v>
       </c>
       <c r="E16" t="n">
-        <v>7.13595588025038</v>
+        <v>10.0458109776466</v>
       </c>
       <c r="F16" t="n">
-        <v>8.3688763331109</v>
+        <v>12.8843203764973</v>
       </c>
       <c r="G16" t="n">
-        <v>7.843559588074</v>
+        <v>11.0753084497468</v>
       </c>
       <c r="H16" t="n">
-        <v>8.28199654456531</v>
+        <v>14.0696766341932</v>
       </c>
       <c r="I16" t="n">
-        <v>9.19482140153333</v>
+        <v>14.6430158679398</v>
       </c>
       <c r="J16" t="n">
-        <v>8.40332146788996</v>
+        <v>16.0444738297152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.50538759980182</v>
+        <v>5.82417919576536</v>
       </c>
       <c r="B17" t="n">
-        <v>4.83024657821297</v>
+        <v>8.07583160185734</v>
       </c>
       <c r="C17" t="n">
-        <v>5.40537064902861</v>
+        <v>8.27449257900996</v>
       </c>
       <c r="D17" t="n">
-        <v>7.49258855894813</v>
+        <v>8.3079762648382</v>
       </c>
       <c r="E17" t="n">
-        <v>6.26815034630556</v>
+        <v>9.46897414774059</v>
       </c>
       <c r="F17" t="n">
-        <v>6.72497976557325</v>
+        <v>10.5390763692337</v>
       </c>
       <c r="G17" t="n">
-        <v>7.36986241827154</v>
+        <v>12.229091513482</v>
       </c>
       <c r="H17" t="n">
-        <v>9.30469031522702</v>
+        <v>13.6226965700109</v>
       </c>
       <c r="I17" t="n">
-        <v>7.93958203407325</v>
+        <v>12.6645577638283</v>
       </c>
       <c r="J17" t="n">
-        <v>9.64972573451626</v>
+        <v>13.8695247743205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.64019852003108</v>
+        <v>5.15876047779633</v>
       </c>
       <c r="B18" t="n">
-        <v>4.43870790047816</v>
+        <v>7.08719525122743</v>
       </c>
       <c r="C18" t="n">
-        <v>6.1607568841467</v>
+        <v>8.46024661361817</v>
       </c>
       <c r="D18" t="n">
-        <v>7.83222959844752</v>
+        <v>7.975550391769</v>
       </c>
       <c r="E18" t="n">
-        <v>6.05209738120056</v>
+        <v>8.61942342487824</v>
       </c>
       <c r="F18" t="n">
-        <v>7.21154573559762</v>
+        <v>11.3873992657605</v>
       </c>
       <c r="G18" t="n">
-        <v>8.68209188445299</v>
+        <v>12.3699203289131</v>
       </c>
       <c r="H18" t="n">
-        <v>9.58524792315383</v>
+        <v>14.6918989170181</v>
       </c>
       <c r="I18" t="n">
-        <v>8.71151985751816</v>
+        <v>13.8843179717295</v>
       </c>
       <c r="J18" t="n">
-        <v>8.65025514187524</v>
+        <v>14.9715603853441</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.04772866494658</v>
+        <v>5.55391678974403</v>
       </c>
       <c r="B19" t="n">
-        <v>4.83016559771734</v>
+        <v>6.98082724006688</v>
       </c>
       <c r="C19" t="n">
-        <v>6.35065606385932</v>
+        <v>8.14925009265633</v>
       </c>
       <c r="D19" t="n">
-        <v>7.57910781270823</v>
+        <v>9.36514252698147</v>
       </c>
       <c r="E19" t="n">
-        <v>8.00413382832599</v>
+        <v>10.7134708786863</v>
       </c>
       <c r="F19" t="n">
-        <v>7.86700306452727</v>
+        <v>11.2833665682635</v>
       </c>
       <c r="G19" t="n">
-        <v>8.09309180517774</v>
+        <v>12.0446228522779</v>
       </c>
       <c r="H19" t="n">
-        <v>9.45688027501495</v>
+        <v>14.0422430921543</v>
       </c>
       <c r="I19" t="n">
-        <v>9.08572381116271</v>
+        <v>14.4033130760483</v>
       </c>
       <c r="J19" t="n">
-        <v>8.53066025992274</v>
+        <v>14.8384444300433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.85372375276549</v>
+        <v>6.51246103958921</v>
       </c>
       <c r="B20" t="n">
-        <v>5.61218690946332</v>
+        <v>6.38986331080451</v>
       </c>
       <c r="C20" t="n">
-        <v>5.99856067489357</v>
+        <v>8.01731772109997</v>
       </c>
       <c r="D20" t="n">
-        <v>6.15287667628784</v>
+        <v>9.91436903328369</v>
       </c>
       <c r="E20" t="n">
-        <v>7.52251909633161</v>
+        <v>10.7771986294957</v>
       </c>
       <c r="F20" t="n">
-        <v>7.82999554510981</v>
+        <v>10.3225080661421</v>
       </c>
       <c r="G20" t="n">
-        <v>7.68216230563878</v>
+        <v>12.0627962090793</v>
       </c>
       <c r="H20" t="n">
-        <v>9.33533355464385</v>
+        <v>12.6040851957972</v>
       </c>
       <c r="I20" t="n">
-        <v>8.34723130131885</v>
+        <v>14.2513135305583</v>
       </c>
       <c r="J20" t="n">
-        <v>10.3369133902895</v>
+        <v>16.0002776887728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.00021296514931</v>
+        <v>6.7404300016767</v>
       </c>
       <c r="B21" t="n">
-        <v>6.72880447993261</v>
+        <v>5.77975689364376</v>
       </c>
       <c r="C21" t="n">
-        <v>5.41539866111251</v>
+        <v>7.4409154122248</v>
       </c>
       <c r="D21" t="n">
-        <v>6.60478093176594</v>
+        <v>9.49070965431322</v>
       </c>
       <c r="E21" t="n">
-        <v>5.92655226923641</v>
+        <v>9.39552703418272</v>
       </c>
       <c r="F21" t="n">
-        <v>7.01683775763341</v>
+        <v>10.2679999156846</v>
       </c>
       <c r="G21" t="n">
-        <v>6.88978330561132</v>
+        <v>11.5983040739278</v>
       </c>
       <c r="H21" t="n">
-        <v>7.78258819217168</v>
+        <v>13.0075610747231</v>
       </c>
       <c r="I21" t="n">
-        <v>8.46214025773726</v>
+        <v>13.7173779052517</v>
       </c>
       <c r="J21" t="n">
-        <v>9.04245829468721</v>
+        <v>16.5110949281552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.28132511596072</v>
+        <v>6.56728917274513</v>
       </c>
       <c r="B22" t="n">
-        <v>5.3672509234686</v>
+        <v>6.14090151120837</v>
       </c>
       <c r="C22" t="n">
-        <v>6.07639866373468</v>
+        <v>8.12543287001863</v>
       </c>
       <c r="D22" t="n">
-        <v>6.52783364813038</v>
+        <v>10.5958184876038</v>
       </c>
       <c r="E22" t="n">
-        <v>6.19574797073981</v>
+        <v>10.358280554143</v>
       </c>
       <c r="F22" t="n">
-        <v>7.77176469322034</v>
+        <v>9.34301167105079</v>
       </c>
       <c r="G22" t="n">
-        <v>8.87009476155965</v>
+        <v>11.9532146535855</v>
       </c>
       <c r="H22" t="n">
-        <v>7.28434373778861</v>
+        <v>13.4280377653697</v>
       </c>
       <c r="I22" t="n">
-        <v>9.97150190167284</v>
+        <v>13.7709444171361</v>
       </c>
       <c r="J22" t="n">
-        <v>10.2959939400183</v>
+        <v>16.5038316125577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.31285552855821</v>
+        <v>5.02324369441488</v>
       </c>
       <c r="B23" t="n">
-        <v>5.13118700906521</v>
+        <v>6.96687786437306</v>
       </c>
       <c r="C23" t="n">
-        <v>6.92106782943177</v>
+        <v>7.38078282979731</v>
       </c>
       <c r="D23" t="n">
-        <v>7.04998644125945</v>
+        <v>9.22646226300005</v>
       </c>
       <c r="E23" t="n">
-        <v>7.37246155414725</v>
+        <v>9.57915037376479</v>
       </c>
       <c r="F23" t="n">
-        <v>7.72636947251742</v>
+        <v>11.5792668127341</v>
       </c>
       <c r="G23" t="n">
-        <v>9.34480330072966</v>
+        <v>12.7554685138509</v>
       </c>
       <c r="H23" t="n">
-        <v>8.46913559155274</v>
+        <v>13.2225076988273</v>
       </c>
       <c r="I23" t="n">
-        <v>9.11846119990346</v>
+        <v>13.2764066973331</v>
       </c>
       <c r="J23" t="n">
-        <v>9.67629929953361</v>
+        <v>15.1592553989362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.54344346059919</v>
+        <v>5.70760251641221</v>
       </c>
       <c r="B24" t="n">
-        <v>5.08747068506122</v>
+        <v>7.62519299153044</v>
       </c>
       <c r="C24" t="n">
-        <v>6.2054301483516</v>
+        <v>7.38229450003096</v>
       </c>
       <c r="D24" t="n">
-        <v>6.54584344212555</v>
+        <v>9.32768433477435</v>
       </c>
       <c r="E24" t="n">
-        <v>6.66977854362278</v>
+        <v>10.1865041600718</v>
       </c>
       <c r="F24" t="n">
-        <v>7.43058462405293</v>
+        <v>11.3915546812456</v>
       </c>
       <c r="G24" t="n">
-        <v>8.36917301804268</v>
+        <v>10.0084422586723</v>
       </c>
       <c r="H24" t="n">
-        <v>8.95737969309443</v>
+        <v>12.8000195042709</v>
       </c>
       <c r="I24" t="n">
-        <v>10.0515090360292</v>
+        <v>12.9768701661275</v>
       </c>
       <c r="J24" t="n">
-        <v>9.65946683324183</v>
+        <v>15.2344548661093</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.51843443692545</v>
+        <v>5.37679806465509</v>
       </c>
       <c r="B25" t="n">
-        <v>6.49705085551666</v>
+        <v>7.59392522514591</v>
       </c>
       <c r="C25" t="n">
-        <v>5.69531825055305</v>
+        <v>5.46050091870302</v>
       </c>
       <c r="D25" t="n">
-        <v>6.81509584914324</v>
+        <v>10.2504779109109</v>
       </c>
       <c r="E25" t="n">
-        <v>6.75576270283004</v>
+        <v>9.98586305814195</v>
       </c>
       <c r="F25" t="n">
-        <v>6.80449780400875</v>
+        <v>11.4319103748663</v>
       </c>
       <c r="G25" t="n">
-        <v>6.84310592018663</v>
+        <v>12.5622819992957</v>
       </c>
       <c r="H25" t="n">
-        <v>7.26612488264913</v>
+        <v>12.9649898481423</v>
       </c>
       <c r="I25" t="n">
-        <v>9.6095213972618</v>
+        <v>14.2321711757155</v>
       </c>
       <c r="J25" t="n">
-        <v>9.71595790994516</v>
+        <v>15.5472039106252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.06451480467249</v>
+        <v>7.55384458781381</v>
       </c>
       <c r="B26" t="n">
-        <v>5.09277774188669</v>
+        <v>7.77690006546365</v>
       </c>
       <c r="C26" t="n">
-        <v>5.26085148320571</v>
+        <v>7.59989808214359</v>
       </c>
       <c r="D26" t="n">
-        <v>6.05084317313093</v>
+        <v>7.89167965036301</v>
       </c>
       <c r="E26" t="n">
-        <v>6.36152712492132</v>
+        <v>9.22914812144607</v>
       </c>
       <c r="F26" t="n">
-        <v>8.06657920366727</v>
+        <v>9.90827402581091</v>
       </c>
       <c r="G26" t="n">
-        <v>7.71925905695658</v>
+        <v>12.3727285688565</v>
       </c>
       <c r="H26" t="n">
-        <v>8.56858787370025</v>
+        <v>15.3329441233201</v>
       </c>
       <c r="I26" t="n">
-        <v>9.94141815582706</v>
+        <v>13.8987505726529</v>
       </c>
       <c r="J26" t="n">
-        <v>10.0211823710108</v>
+        <v>15.82874232182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.21830127344343</v>
+        <v>5.39242105854744</v>
       </c>
       <c r="B27" t="n">
-        <v>7.6693735101648</v>
+        <v>6.67081321244326</v>
       </c>
       <c r="C27" t="n">
-        <v>5.81019824562091</v>
+        <v>6.94971475783228</v>
       </c>
       <c r="D27" t="n">
-        <v>6.81156344091645</v>
+        <v>9.43783958538986</v>
       </c>
       <c r="E27" t="n">
-        <v>5.98061902313913</v>
+        <v>9.48246047752525</v>
       </c>
       <c r="F27" t="n">
-        <v>8.31642853880644</v>
+        <v>9.11824358938747</v>
       </c>
       <c r="G27" t="n">
-        <v>9.42548989271651</v>
+        <v>12.6709052587618</v>
       </c>
       <c r="H27" t="n">
-        <v>8.56155173217569</v>
+        <v>14.465640855028</v>
       </c>
       <c r="I27" t="n">
-        <v>9.11396885787932</v>
+        <v>14.7731762928286</v>
       </c>
       <c r="J27" t="n">
-        <v>9.01385555397815</v>
+        <v>13.7690121311298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.9666585249551</v>
+        <v>4.4462364485305</v>
       </c>
       <c r="B28" t="n">
-        <v>5.69255119954771</v>
+        <v>5.91482412993566</v>
       </c>
       <c r="C28" t="n">
-        <v>6.80985447610019</v>
+        <v>6.78437933512218</v>
       </c>
       <c r="D28" t="n">
-        <v>6.06147200654</v>
+        <v>8.82440190257299</v>
       </c>
       <c r="E28" t="n">
-        <v>6.05764571882455</v>
+        <v>9.61375517204213</v>
       </c>
       <c r="F28" t="n">
-        <v>7.07321823839953</v>
+        <v>10.6515868342541</v>
       </c>
       <c r="G28" t="n">
-        <v>6.94065931450469</v>
+        <v>12.4465540585716</v>
       </c>
       <c r="H28" t="n">
-        <v>7.72159622946683</v>
+        <v>11.7689892117249</v>
       </c>
       <c r="I28" t="n">
-        <v>8.63627089820734</v>
+        <v>13.3445043717367</v>
       </c>
       <c r="J28" t="n">
-        <v>9.99673232620831</v>
+        <v>15.1908992709292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.6373609718276</v>
+        <v>5.79798095475647</v>
       </c>
       <c r="B29" t="n">
-        <v>6.69513570205047</v>
+        <v>7.8106663704975</v>
       </c>
       <c r="C29" t="n">
-        <v>6.14577132394774</v>
+        <v>9.39028163578221</v>
       </c>
       <c r="D29" t="n">
-        <v>7.67446398103238</v>
+        <v>7.12016294187461</v>
       </c>
       <c r="E29" t="n">
-        <v>7.69828737910455</v>
+        <v>11.3209911225542</v>
       </c>
       <c r="F29" t="n">
-        <v>7.94356979986916</v>
+        <v>9.53221040797489</v>
       </c>
       <c r="G29" t="n">
-        <v>8.54141291245837</v>
+        <v>11.6581169461671</v>
       </c>
       <c r="H29" t="n">
-        <v>9.93914867331501</v>
+        <v>13.3786844492644</v>
       </c>
       <c r="I29" t="n">
-        <v>8.46755926686565</v>
+        <v>14.8738796187413</v>
       </c>
       <c r="J29" t="n">
-        <v>10.1549997507625</v>
+        <v>14.0231187570547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.85619436963579</v>
+        <v>6.28807732742765</v>
       </c>
       <c r="B30" t="n">
-        <v>5.9087158992886</v>
+        <v>8.21846758949883</v>
       </c>
       <c r="C30" t="n">
-        <v>7.29997527775926</v>
+        <v>9.59820432031677</v>
       </c>
       <c r="D30" t="n">
-        <v>5.14722221510004</v>
+        <v>8.39118469900371</v>
       </c>
       <c r="E30" t="n">
-        <v>7.2105563947855</v>
+        <v>9.63635780298556</v>
       </c>
       <c r="F30" t="n">
-        <v>7.15355828761691</v>
+        <v>10.2819364974699</v>
       </c>
       <c r="G30" t="n">
-        <v>9.53106878007181</v>
+        <v>11.6754551726479</v>
       </c>
       <c r="H30" t="n">
-        <v>9.0463635269964</v>
+        <v>13.2923069400292</v>
       </c>
       <c r="I30" t="n">
-        <v>8.94153148866067</v>
+        <v>13.7596361675171</v>
       </c>
       <c r="J30" t="n">
-        <v>8.33967198246246</v>
+        <v>14.5177718200798</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.69244934330789</v>
+        <v>5.50874906876104</v>
       </c>
       <c r="B31" t="n">
-        <v>4.16461042288425</v>
+        <v>7.04593399070533</v>
       </c>
       <c r="C31" t="n">
-        <v>7.01710281254857</v>
+        <v>8.18405474994666</v>
       </c>
       <c r="D31" t="n">
-        <v>6.66964514596782</v>
+        <v>9.41744286798351</v>
       </c>
       <c r="E31" t="n">
-        <v>7.22378510887892</v>
+        <v>10.0099104187935</v>
       </c>
       <c r="F31" t="n">
-        <v>7.87451491121368</v>
+        <v>10.7761202039942</v>
       </c>
       <c r="G31" t="n">
-        <v>7.00342205549799</v>
+        <v>12.3537175676331</v>
       </c>
       <c r="H31" t="n">
-        <v>8.53060569231073</v>
+        <v>12.2853921752265</v>
       </c>
       <c r="I31" t="n">
-        <v>9.46873290636261</v>
+        <v>13.6468000639614</v>
       </c>
       <c r="J31" t="n">
-        <v>9.87750823023592</v>
+        <v>14.7143063136271</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Model1Baseline_Ysim.xlsx
+++ b/SimulationStudyData/Model1Baseline_Ysim.xlsx
@@ -407,962 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.68324037362208</v>
+        <v>6.58594064978164</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40896565068343</v>
+        <v>6.53938192002263</v>
       </c>
       <c r="C2" t="n">
-        <v>7.09536015194641</v>
+        <v>8.32185461194999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.40249661355259</v>
+        <v>8.35040349768024</v>
       </c>
       <c r="E2" t="n">
-        <v>9.97942299408541</v>
+        <v>10.2600450661769</v>
       </c>
       <c r="F2" t="n">
-        <v>11.4273804190352</v>
+        <v>10.9284769670316</v>
       </c>
       <c r="G2" t="n">
-        <v>13.0146217992249</v>
+        <v>12.4699649385381</v>
       </c>
       <c r="H2" t="n">
-        <v>12.8743778374995</v>
+        <v>13.1625854556882</v>
       </c>
       <c r="I2" t="n">
-        <v>13.9124695114859</v>
+        <v>13.7887204352776</v>
       </c>
       <c r="J2" t="n">
-        <v>15.108448472147</v>
+        <v>13.7303520540039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.94815042678719</v>
+        <v>5.69984681877575</v>
       </c>
       <c r="B3" t="n">
-        <v>7.53900176553242</v>
+        <v>6.64033357905956</v>
       </c>
       <c r="C3" t="n">
-        <v>9.55765331899102</v>
+        <v>7.64207907199419</v>
       </c>
       <c r="D3" t="n">
-        <v>8.71125700709352</v>
+        <v>8.93168360798109</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5270762910226</v>
+        <v>9.63169733710499</v>
       </c>
       <c r="F3" t="n">
-        <v>10.1670987887451</v>
+        <v>11.1908767810382</v>
       </c>
       <c r="G3" t="n">
-        <v>13.4781695091327</v>
+        <v>12.4788158835589</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7902799142111</v>
+        <v>13.161542249135</v>
       </c>
       <c r="I3" t="n">
-        <v>14.2677732051284</v>
+        <v>13.8145797203997</v>
       </c>
       <c r="J3" t="n">
-        <v>15.2961314559436</v>
+        <v>15.76088354526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.2658373870685</v>
+        <v>6.35397018810877</v>
       </c>
       <c r="B4" t="n">
-        <v>6.35067674079301</v>
+        <v>6.14805963284692</v>
       </c>
       <c r="C4" t="n">
-        <v>7.20749352374374</v>
+        <v>8.15327185229239</v>
       </c>
       <c r="D4" t="n">
-        <v>8.52350345177699</v>
+        <v>8.67338487005753</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4774585908754</v>
+        <v>10.1985184264993</v>
       </c>
       <c r="F4" t="n">
-        <v>11.3445180766307</v>
+        <v>11.4837426482931</v>
       </c>
       <c r="G4" t="n">
-        <v>11.650566916802</v>
+        <v>12.3898956588843</v>
       </c>
       <c r="H4" t="n">
-        <v>12.5517176140853</v>
+        <v>13.5507764342863</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5754096297347</v>
+        <v>13.8363068179454</v>
       </c>
       <c r="J4" t="n">
-        <v>13.9168612593759</v>
+        <v>14.1421084626117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.51671430931206</v>
+        <v>7.8326309394953</v>
       </c>
       <c r="B5" t="n">
-        <v>7.77883847490025</v>
+        <v>6.74236925630056</v>
       </c>
       <c r="C5" t="n">
-        <v>6.98380966885864</v>
+        <v>6.17506424423466</v>
       </c>
       <c r="D5" t="n">
-        <v>8.0516840421597</v>
+        <v>8.99826111112414</v>
       </c>
       <c r="E5" t="n">
-        <v>9.43563674979984</v>
+        <v>9.08326383744225</v>
       </c>
       <c r="F5" t="n">
-        <v>11.3852490029668</v>
+        <v>10.1285089113705</v>
       </c>
       <c r="G5" t="n">
-        <v>11.6303990528498</v>
+        <v>11.7083309963173</v>
       </c>
       <c r="H5" t="n">
-        <v>13.4216519537777</v>
+        <v>14.4906423531951</v>
       </c>
       <c r="I5" t="n">
-        <v>14.4450409172263</v>
+        <v>14.1638434244242</v>
       </c>
       <c r="J5" t="n">
-        <v>14.4100759266299</v>
+        <v>15.7848972386335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.07673709954351</v>
+        <v>5.9519513362121</v>
       </c>
       <c r="B6" t="n">
-        <v>8.03017864301194</v>
+        <v>8.40644298127332</v>
       </c>
       <c r="C6" t="n">
-        <v>7.96162195364813</v>
+        <v>8.05436660922701</v>
       </c>
       <c r="D6" t="n">
-        <v>8.88556406416885</v>
+        <v>9.36719438354508</v>
       </c>
       <c r="E6" t="n">
-        <v>9.15852233275792</v>
+        <v>9.39149911286593</v>
       </c>
       <c r="F6" t="n">
-        <v>9.73260904628491</v>
+        <v>10.4576018259023</v>
       </c>
       <c r="G6" t="n">
-        <v>11.4783961928477</v>
+        <v>12.3206604719767</v>
       </c>
       <c r="H6" t="n">
-        <v>14.331981631489</v>
+        <v>12.5285213833559</v>
       </c>
       <c r="I6" t="n">
-        <v>13.7026772479843</v>
+        <v>14.602656220085</v>
       </c>
       <c r="J6" t="n">
-        <v>14.3258475690287</v>
+        <v>14.6471342102313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.23694587520799</v>
+        <v>6.09736017820077</v>
       </c>
       <c r="B7" t="n">
-        <v>5.6914967188608</v>
+        <v>6.63352622546785</v>
       </c>
       <c r="C7" t="n">
-        <v>7.73719983292156</v>
+        <v>8.48467369343886</v>
       </c>
       <c r="D7" t="n">
-        <v>8.83210161167929</v>
+        <v>9.95526382377068</v>
       </c>
       <c r="E7" t="n">
-        <v>10.4295274847826</v>
+        <v>9.58593849100823</v>
       </c>
       <c r="F7" t="n">
-        <v>9.70057173871201</v>
+        <v>11.4881264543403</v>
       </c>
       <c r="G7" t="n">
-        <v>11.8903214901538</v>
+        <v>11.9776344296296</v>
       </c>
       <c r="H7" t="n">
-        <v>11.3762632000057</v>
+        <v>13.1343427843847</v>
       </c>
       <c r="I7" t="n">
-        <v>13.4788390586642</v>
+        <v>13.2877422282984</v>
       </c>
       <c r="J7" t="n">
-        <v>14.8076453389927</v>
+        <v>14.2132077544636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.43554117479088</v>
+        <v>5.2911531084066</v>
       </c>
       <c r="B8" t="n">
-        <v>8.05740107274669</v>
+        <v>7.74994755050033</v>
       </c>
       <c r="C8" t="n">
-        <v>7.67131409031823</v>
+        <v>7.51968057531542</v>
       </c>
       <c r="D8" t="n">
-        <v>8.09810799082696</v>
+        <v>9.94888411277772</v>
       </c>
       <c r="E8" t="n">
-        <v>10.2355664276488</v>
+        <v>8.92871583535426</v>
       </c>
       <c r="F8" t="n">
-        <v>10.7911951629152</v>
+        <v>12.6808624349017</v>
       </c>
       <c r="G8" t="n">
-        <v>11.3269150096018</v>
+        <v>11.9900496018962</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5618439469409</v>
+        <v>12.9434268101437</v>
       </c>
       <c r="I8" t="n">
-        <v>13.8800121744184</v>
+        <v>14.3594367626757</v>
       </c>
       <c r="J8" t="n">
-        <v>14.2011618937302</v>
+        <v>15.5482547228164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.4851130570182</v>
+        <v>5.26261952627093</v>
       </c>
       <c r="B9" t="n">
-        <v>6.74039934704745</v>
+        <v>6.78669689612526</v>
       </c>
       <c r="C9" t="n">
-        <v>7.52568052529988</v>
+        <v>7.78407414038741</v>
       </c>
       <c r="D9" t="n">
-        <v>7.79713254337035</v>
+        <v>9.28617637269686</v>
       </c>
       <c r="E9" t="n">
-        <v>10.5709897714061</v>
+        <v>9.84408212408396</v>
       </c>
       <c r="F9" t="n">
-        <v>10.9857069351065</v>
+        <v>11.4723772574438</v>
       </c>
       <c r="G9" t="n">
-        <v>11.8737904353043</v>
+        <v>11.8289057395233</v>
       </c>
       <c r="H9" t="n">
-        <v>12.3484379034526</v>
+        <v>13.5814429332788</v>
       </c>
       <c r="I9" t="n">
-        <v>13.7531041214064</v>
+        <v>14.9712961684296</v>
       </c>
       <c r="J9" t="n">
-        <v>15.7381900962008</v>
+        <v>13.9206407344587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.66044756068151</v>
+        <v>6.4380261991954</v>
       </c>
       <c r="B10" t="n">
-        <v>7.01397953529841</v>
+        <v>6.21085891372212</v>
       </c>
       <c r="C10" t="n">
-        <v>7.76048497155342</v>
+        <v>7.92985456287819</v>
       </c>
       <c r="D10" t="n">
-        <v>9.02942844246301</v>
+        <v>8.08810441755753</v>
       </c>
       <c r="E10" t="n">
-        <v>9.02242588310552</v>
+        <v>10.0372705882416</v>
       </c>
       <c r="F10" t="n">
-        <v>11.4083899971943</v>
+        <v>11.3952207983217</v>
       </c>
       <c r="G10" t="n">
-        <v>12.3573587293143</v>
+        <v>13.2028994244432</v>
       </c>
       <c r="H10" t="n">
-        <v>13.7344974407768</v>
+        <v>13.3175845835585</v>
       </c>
       <c r="I10" t="n">
-        <v>13.76188211949</v>
+        <v>14.3166690228607</v>
       </c>
       <c r="J10" t="n">
-        <v>15.9399782558151</v>
+        <v>16.0753970964336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.68378659120821</v>
+        <v>5.30621284274451</v>
       </c>
       <c r="B11" t="n">
-        <v>5.95241574142731</v>
+        <v>6.54745696036132</v>
       </c>
       <c r="C11" t="n">
-        <v>8.60138605703421</v>
+        <v>8.98650625396356</v>
       </c>
       <c r="D11" t="n">
-        <v>8.86709572172175</v>
+        <v>8.65582577621429</v>
       </c>
       <c r="E11" t="n">
-        <v>10.3378696425878</v>
+        <v>10.6142240841935</v>
       </c>
       <c r="F11" t="n">
-        <v>11.4339977310152</v>
+        <v>11.2107259633192</v>
       </c>
       <c r="G11" t="n">
-        <v>11.6903130046505</v>
+        <v>11.2903746817464</v>
       </c>
       <c r="H11" t="n">
-        <v>12.3659559497891</v>
+        <v>13.9064580953125</v>
       </c>
       <c r="I11" t="n">
-        <v>13.6201110946499</v>
+        <v>14.335590958144</v>
       </c>
       <c r="J11" t="n">
-        <v>14.715270108658</v>
+        <v>16.1133029897027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.85590047666555</v>
+        <v>5.69450485012485</v>
       </c>
       <c r="B12" t="n">
-        <v>7.03405663039731</v>
+        <v>6.57296306100408</v>
       </c>
       <c r="C12" t="n">
-        <v>8.41187907577057</v>
+        <v>8.80570932708086</v>
       </c>
       <c r="D12" t="n">
-        <v>8.38546691858745</v>
+        <v>8.91412631877856</v>
       </c>
       <c r="E12" t="n">
-        <v>10.9504442918369</v>
+        <v>9.98160858038304</v>
       </c>
       <c r="F12" t="n">
-        <v>10.8503546649433</v>
+        <v>10.4731015631783</v>
       </c>
       <c r="G12" t="n">
-        <v>11.2430764214693</v>
+        <v>13.8537574588861</v>
       </c>
       <c r="H12" t="n">
-        <v>13.0143532507288</v>
+        <v>13.1652411632744</v>
       </c>
       <c r="I12" t="n">
-        <v>13.9144375619036</v>
+        <v>15.7193522510516</v>
       </c>
       <c r="J12" t="n">
-        <v>15.2143479132517</v>
+        <v>15.7186143574584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.67564208548783</v>
+        <v>5.88710972871035</v>
       </c>
       <c r="B13" t="n">
-        <v>7.60514680478798</v>
+        <v>7.36016790242973</v>
       </c>
       <c r="C13" t="n">
-        <v>8.47578706008197</v>
+        <v>8.85024813056715</v>
       </c>
       <c r="D13" t="n">
-        <v>9.16945905998386</v>
+        <v>8.75659348838642</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2081597459939</v>
+        <v>9.55627149921333</v>
       </c>
       <c r="F13" t="n">
-        <v>10.2880331641513</v>
+        <v>10.2614224194544</v>
       </c>
       <c r="G13" t="n">
-        <v>12.4491149218861</v>
+        <v>11.1770511737833</v>
       </c>
       <c r="H13" t="n">
-        <v>12.5130488420457</v>
+        <v>12.1111790850676</v>
       </c>
       <c r="I13" t="n">
-        <v>14.165850930743</v>
+        <v>15.6427636157417</v>
       </c>
       <c r="J13" t="n">
-        <v>13.6269947655129</v>
+        <v>13.1165011361948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.38075999281055</v>
+        <v>5.93399015329815</v>
       </c>
       <c r="B14" t="n">
-        <v>5.81642842759602</v>
+        <v>6.597900151785</v>
       </c>
       <c r="C14" t="n">
-        <v>8.31272668870975</v>
+        <v>8.12127575385172</v>
       </c>
       <c r="D14" t="n">
-        <v>8.72707974872862</v>
+        <v>9.73964206454671</v>
       </c>
       <c r="E14" t="n">
-        <v>8.78107489074712</v>
+        <v>9.57415250323687</v>
       </c>
       <c r="F14" t="n">
-        <v>12.2141116346363</v>
+        <v>10.4325538308621</v>
       </c>
       <c r="G14" t="n">
-        <v>11.5198038851249</v>
+        <v>13.0346144549727</v>
       </c>
       <c r="H14" t="n">
-        <v>13.4948625811579</v>
+        <v>14.6276546503706</v>
       </c>
       <c r="I14" t="n">
-        <v>13.9306892515255</v>
+        <v>14.5286541941529</v>
       </c>
       <c r="J14" t="n">
-        <v>15.3557719359965</v>
+        <v>15.2940307600695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.83521315068403</v>
+        <v>6.13253233852582</v>
       </c>
       <c r="B15" t="n">
-        <v>6.65240124200651</v>
+        <v>7.25389531067608</v>
       </c>
       <c r="C15" t="n">
-        <v>6.79456059821877</v>
+        <v>7.74650177316607</v>
       </c>
       <c r="D15" t="n">
-        <v>9.66661781877806</v>
+        <v>8.44037273190192</v>
       </c>
       <c r="E15" t="n">
-        <v>10.4879696988479</v>
+        <v>10.4038983231706</v>
       </c>
       <c r="F15" t="n">
-        <v>10.754929079658</v>
+        <v>13.0441738659711</v>
       </c>
       <c r="G15" t="n">
-        <v>12.0839076197448</v>
+        <v>12.0562055061701</v>
       </c>
       <c r="H15" t="n">
-        <v>13.3419679531776</v>
+        <v>12.2473881213124</v>
       </c>
       <c r="I15" t="n">
-        <v>14.1316197323475</v>
+        <v>14.0665141921662</v>
       </c>
       <c r="J15" t="n">
-        <v>13.975651269816</v>
+        <v>16.6620964327101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.74520370238066</v>
+        <v>4.93693503137932</v>
       </c>
       <c r="B16" t="n">
-        <v>7.17153903726717</v>
+        <v>7.55301090660786</v>
       </c>
       <c r="C16" t="n">
-        <v>7.89200840513719</v>
+        <v>6.90608232394145</v>
       </c>
       <c r="D16" t="n">
-        <v>9.84099016799093</v>
+        <v>8.65836413355765</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0458109776466</v>
+        <v>10.2334176716373</v>
       </c>
       <c r="F16" t="n">
-        <v>12.8843203764973</v>
+        <v>11.078594198486</v>
       </c>
       <c r="G16" t="n">
-        <v>11.0753084497468</v>
+        <v>12.0528150038294</v>
       </c>
       <c r="H16" t="n">
-        <v>14.0696766341932</v>
+        <v>13.1078406854933</v>
       </c>
       <c r="I16" t="n">
-        <v>14.6430158679398</v>
+        <v>15.0381775483902</v>
       </c>
       <c r="J16" t="n">
-        <v>16.0444738297152</v>
+        <v>15.1664092349118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.82417919576536</v>
+        <v>6.45164284425718</v>
       </c>
       <c r="B17" t="n">
-        <v>8.07583160185734</v>
+        <v>7.30222929665401</v>
       </c>
       <c r="C17" t="n">
-        <v>8.27449257900996</v>
+        <v>9.03756451471551</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3079762648382</v>
+        <v>9.36073263914054</v>
       </c>
       <c r="E17" t="n">
-        <v>9.46897414774059</v>
+        <v>9.69943244897042</v>
       </c>
       <c r="F17" t="n">
-        <v>10.5390763692337</v>
+        <v>11.2239806689993</v>
       </c>
       <c r="G17" t="n">
-        <v>12.229091513482</v>
+        <v>11.6702174007492</v>
       </c>
       <c r="H17" t="n">
-        <v>13.6226965700109</v>
+        <v>13.5538690735106</v>
       </c>
       <c r="I17" t="n">
-        <v>12.6645577638283</v>
+        <v>13.4481319782583</v>
       </c>
       <c r="J17" t="n">
-        <v>13.8695247743205</v>
+        <v>15.9939967322701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.15876047779633</v>
+        <v>5.26352864100183</v>
       </c>
       <c r="B18" t="n">
-        <v>7.08719525122743</v>
+        <v>8.12866318000389</v>
       </c>
       <c r="C18" t="n">
-        <v>8.46024661361817</v>
+        <v>9.15185202324929</v>
       </c>
       <c r="D18" t="n">
-        <v>7.975550391769</v>
+        <v>8.72964331471481</v>
       </c>
       <c r="E18" t="n">
-        <v>8.61942342487824</v>
+        <v>9.05894681401094</v>
       </c>
       <c r="F18" t="n">
-        <v>11.3873992657605</v>
+        <v>10.4687807326592</v>
       </c>
       <c r="G18" t="n">
-        <v>12.3699203289131</v>
+        <v>11.8364506312839</v>
       </c>
       <c r="H18" t="n">
-        <v>14.6918989170181</v>
+        <v>13.1563921018899</v>
       </c>
       <c r="I18" t="n">
-        <v>13.8843179717295</v>
+        <v>13.1799635656275</v>
       </c>
       <c r="J18" t="n">
-        <v>14.9715603853441</v>
+        <v>14.273689214005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.55391678974403</v>
+        <v>6.99583773179693</v>
       </c>
       <c r="B19" t="n">
-        <v>6.98082724006688</v>
+        <v>6.51107203358607</v>
       </c>
       <c r="C19" t="n">
-        <v>8.14925009265633</v>
+        <v>7.34695648718878</v>
       </c>
       <c r="D19" t="n">
-        <v>9.36514252698147</v>
+        <v>8.82147070149875</v>
       </c>
       <c r="E19" t="n">
-        <v>10.7134708786863</v>
+        <v>9.41322603692293</v>
       </c>
       <c r="F19" t="n">
-        <v>11.2833665682635</v>
+        <v>10.8544426070431</v>
       </c>
       <c r="G19" t="n">
-        <v>12.0446228522779</v>
+        <v>12.2915266342451</v>
       </c>
       <c r="H19" t="n">
-        <v>14.0422430921543</v>
+        <v>12.7475306643539</v>
       </c>
       <c r="I19" t="n">
-        <v>14.4033130760483</v>
+        <v>14.9482754472719</v>
       </c>
       <c r="J19" t="n">
-        <v>14.8384444300433</v>
+        <v>15.2186394417439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.51246103958921</v>
+        <v>5.55518538440567</v>
       </c>
       <c r="B20" t="n">
-        <v>6.38986331080451</v>
+        <v>8.09829916167006</v>
       </c>
       <c r="C20" t="n">
-        <v>8.01731772109997</v>
+        <v>8.15590718621433</v>
       </c>
       <c r="D20" t="n">
-        <v>9.91436903328369</v>
+        <v>9.5469411439848</v>
       </c>
       <c r="E20" t="n">
-        <v>10.7771986294957</v>
+        <v>11.3281420984014</v>
       </c>
       <c r="F20" t="n">
-        <v>10.3225080661421</v>
+        <v>12.2174584297144</v>
       </c>
       <c r="G20" t="n">
-        <v>12.0627962090793</v>
+        <v>12.9116917130833</v>
       </c>
       <c r="H20" t="n">
-        <v>12.6040851957972</v>
+        <v>14.1251505273985</v>
       </c>
       <c r="I20" t="n">
-        <v>14.2513135305583</v>
+        <v>13.4609556601037</v>
       </c>
       <c r="J20" t="n">
-        <v>16.0002776887728</v>
+        <v>15.0906051051032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.7404300016767</v>
+        <v>6.77983395025423</v>
       </c>
       <c r="B21" t="n">
-        <v>5.77975689364376</v>
+        <v>7.30684476497946</v>
       </c>
       <c r="C21" t="n">
-        <v>7.4409154122248</v>
+        <v>8.18041855336181</v>
       </c>
       <c r="D21" t="n">
-        <v>9.49070965431322</v>
+        <v>8.9664567643858</v>
       </c>
       <c r="E21" t="n">
-        <v>9.39552703418272</v>
+        <v>9.64538529623469</v>
       </c>
       <c r="F21" t="n">
-        <v>10.2679999156846</v>
+        <v>10.8092885100886</v>
       </c>
       <c r="G21" t="n">
-        <v>11.5983040739278</v>
+        <v>12.1256166815005</v>
       </c>
       <c r="H21" t="n">
-        <v>13.0075610747231</v>
+        <v>12.5732020614304</v>
       </c>
       <c r="I21" t="n">
-        <v>13.7173779052517</v>
+        <v>13.6252756026366</v>
       </c>
       <c r="J21" t="n">
-        <v>16.5110949281552</v>
+        <v>14.3652040510511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.56728917274513</v>
+        <v>5.61991255069083</v>
       </c>
       <c r="B22" t="n">
-        <v>6.14090151120837</v>
+        <v>8.27926750884</v>
       </c>
       <c r="C22" t="n">
-        <v>8.12543287001863</v>
+        <v>7.19747828190295</v>
       </c>
       <c r="D22" t="n">
-        <v>10.5958184876038</v>
+        <v>8.89387575573999</v>
       </c>
       <c r="E22" t="n">
-        <v>10.358280554143</v>
+        <v>10.8101235048742</v>
       </c>
       <c r="F22" t="n">
-        <v>9.34301167105079</v>
+        <v>11.0543381094422</v>
       </c>
       <c r="G22" t="n">
-        <v>11.9532146535855</v>
+        <v>11.7727622412601</v>
       </c>
       <c r="H22" t="n">
-        <v>13.4280377653697</v>
+        <v>13.5170849565863</v>
       </c>
       <c r="I22" t="n">
-        <v>13.7709444171361</v>
+        <v>13.402038685764</v>
       </c>
       <c r="J22" t="n">
-        <v>16.5038316125577</v>
+        <v>13.8908080435346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.02324369441488</v>
+        <v>6.42951362146825</v>
       </c>
       <c r="B23" t="n">
-        <v>6.96687786437306</v>
+        <v>6.29711516369547</v>
       </c>
       <c r="C23" t="n">
-        <v>7.38078282979731</v>
+        <v>7.35158906730536</v>
       </c>
       <c r="D23" t="n">
-        <v>9.22646226300005</v>
+        <v>6.99708059952886</v>
       </c>
       <c r="E23" t="n">
-        <v>9.57915037376479</v>
+        <v>10.5682910534287</v>
       </c>
       <c r="F23" t="n">
-        <v>11.5792668127341</v>
+        <v>10.3684146258588</v>
       </c>
       <c r="G23" t="n">
-        <v>12.7554685138509</v>
+        <v>11.5128914272071</v>
       </c>
       <c r="H23" t="n">
-        <v>13.2225076988273</v>
+        <v>12.4253990998982</v>
       </c>
       <c r="I23" t="n">
-        <v>13.2764066973331</v>
+        <v>12.276729337601</v>
       </c>
       <c r="J23" t="n">
-        <v>15.1592553989362</v>
+        <v>13.1939329426946</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.70760251641221</v>
+        <v>6.6322400431986</v>
       </c>
       <c r="B24" t="n">
-        <v>7.62519299153044</v>
+        <v>7.18817358863805</v>
       </c>
       <c r="C24" t="n">
-        <v>7.38229450003096</v>
+        <v>8.87866733159489</v>
       </c>
       <c r="D24" t="n">
-        <v>9.32768433477435</v>
+        <v>8.89927592017906</v>
       </c>
       <c r="E24" t="n">
-        <v>10.1865041600718</v>
+        <v>9.65767924638773</v>
       </c>
       <c r="F24" t="n">
-        <v>11.3915546812456</v>
+        <v>10.6308154812673</v>
       </c>
       <c r="G24" t="n">
-        <v>10.0084422586723</v>
+        <v>12.4190219489957</v>
       </c>
       <c r="H24" t="n">
-        <v>12.8000195042709</v>
+        <v>11.8537046557281</v>
       </c>
       <c r="I24" t="n">
-        <v>12.9768701661275</v>
+        <v>13.9703679297682</v>
       </c>
       <c r="J24" t="n">
-        <v>15.2344548661093</v>
+        <v>15.1785284743335</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.37679806465509</v>
+        <v>5.0199261195855</v>
       </c>
       <c r="B25" t="n">
-        <v>7.59392522514591</v>
+        <v>6.92858133321859</v>
       </c>
       <c r="C25" t="n">
-        <v>5.46050091870302</v>
+        <v>7.68442589989101</v>
       </c>
       <c r="D25" t="n">
-        <v>10.2504779109109</v>
+        <v>8.48374306392842</v>
       </c>
       <c r="E25" t="n">
-        <v>9.98586305814195</v>
+        <v>10.4960168708144</v>
       </c>
       <c r="F25" t="n">
-        <v>11.4319103748663</v>
+        <v>9.86473368854405</v>
       </c>
       <c r="G25" t="n">
-        <v>12.5622819992957</v>
+        <v>10.7523141472816</v>
       </c>
       <c r="H25" t="n">
-        <v>12.9649898481423</v>
+        <v>13.8028256661953</v>
       </c>
       <c r="I25" t="n">
-        <v>14.2321711757155</v>
+        <v>15.2725345242387</v>
       </c>
       <c r="J25" t="n">
-        <v>15.5472039106252</v>
+        <v>14.8121519105755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.55384458781381</v>
+        <v>6.22973403288664</v>
       </c>
       <c r="B26" t="n">
-        <v>7.77690006546365</v>
+        <v>6.63451404014164</v>
       </c>
       <c r="C26" t="n">
-        <v>7.59989808214359</v>
+        <v>8.21670665476733</v>
       </c>
       <c r="D26" t="n">
-        <v>7.89167965036301</v>
+        <v>9.36457994827798</v>
       </c>
       <c r="E26" t="n">
-        <v>9.22914812144607</v>
+        <v>10.4787185495374</v>
       </c>
       <c r="F26" t="n">
-        <v>9.90827402581091</v>
+        <v>10.5633022191867</v>
       </c>
       <c r="G26" t="n">
-        <v>12.3727285688565</v>
+        <v>12.9416956740272</v>
       </c>
       <c r="H26" t="n">
-        <v>15.3329441233201</v>
+        <v>13.1728884495208</v>
       </c>
       <c r="I26" t="n">
-        <v>13.8987505726529</v>
+        <v>13.9294935350873</v>
       </c>
       <c r="J26" t="n">
-        <v>15.82874232182</v>
+        <v>14.7852063642526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.39242105854744</v>
+        <v>6.85092282072069</v>
       </c>
       <c r="B27" t="n">
-        <v>6.67081321244326</v>
+        <v>7.02510824186661</v>
       </c>
       <c r="C27" t="n">
-        <v>6.94971475783228</v>
+        <v>8.76018325020798</v>
       </c>
       <c r="D27" t="n">
-        <v>9.43783958538986</v>
+        <v>10.2309909269604</v>
       </c>
       <c r="E27" t="n">
-        <v>9.48246047752525</v>
+        <v>12.3472692590612</v>
       </c>
       <c r="F27" t="n">
-        <v>9.11824358938747</v>
+        <v>12.3945276736935</v>
       </c>
       <c r="G27" t="n">
-        <v>12.6709052587618</v>
+        <v>11.4148784793978</v>
       </c>
       <c r="H27" t="n">
-        <v>14.465640855028</v>
+        <v>12.7218115737743</v>
       </c>
       <c r="I27" t="n">
-        <v>14.7731762928286</v>
+        <v>14.8038279346475</v>
       </c>
       <c r="J27" t="n">
-        <v>13.7690121311298</v>
+        <v>15.3355588476929</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.4462364485305</v>
+        <v>5.85264970442973</v>
       </c>
       <c r="B28" t="n">
-        <v>5.91482412993566</v>
+        <v>7.46645379017516</v>
       </c>
       <c r="C28" t="n">
-        <v>6.78437933512218</v>
+        <v>7.44085881541485</v>
       </c>
       <c r="D28" t="n">
-        <v>8.82440190257299</v>
+        <v>9.67761128947684</v>
       </c>
       <c r="E28" t="n">
-        <v>9.61375517204213</v>
+        <v>9.36517553109783</v>
       </c>
       <c r="F28" t="n">
-        <v>10.6515868342541</v>
+        <v>10.5068225687618</v>
       </c>
       <c r="G28" t="n">
-        <v>12.4465540585716</v>
+        <v>12.4659239986084</v>
       </c>
       <c r="H28" t="n">
-        <v>11.7689892117249</v>
+        <v>13.2100759318812</v>
       </c>
       <c r="I28" t="n">
-        <v>13.3445043717367</v>
+        <v>12.6460151704851</v>
       </c>
       <c r="J28" t="n">
-        <v>15.1908992709292</v>
+        <v>14.2251879445763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.79798095475647</v>
+        <v>5.96470566800545</v>
       </c>
       <c r="B29" t="n">
-        <v>7.8106663704975</v>
+        <v>7.18583849457471</v>
       </c>
       <c r="C29" t="n">
-        <v>9.39028163578221</v>
+        <v>7.76471649353005</v>
       </c>
       <c r="D29" t="n">
-        <v>7.12016294187461</v>
+        <v>9.19266040571839</v>
       </c>
       <c r="E29" t="n">
-        <v>11.3209911225542</v>
+        <v>10.5063904380352</v>
       </c>
       <c r="F29" t="n">
-        <v>9.53221040797489</v>
+        <v>9.89955548256739</v>
       </c>
       <c r="G29" t="n">
-        <v>11.6581169461671</v>
+        <v>10.98147816708</v>
       </c>
       <c r="H29" t="n">
-        <v>13.3786844492644</v>
+        <v>12.0727249626157</v>
       </c>
       <c r="I29" t="n">
-        <v>14.8738796187413</v>
+        <v>13.6652678460208</v>
       </c>
       <c r="J29" t="n">
-        <v>14.0231187570547</v>
+        <v>14.9387206075961</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.28807732742765</v>
+        <v>5.56757898815823</v>
       </c>
       <c r="B30" t="n">
-        <v>8.21846758949883</v>
+        <v>6.49619442930887</v>
       </c>
       <c r="C30" t="n">
-        <v>9.59820432031677</v>
+        <v>8.17370072888055</v>
       </c>
       <c r="D30" t="n">
-        <v>8.39118469900371</v>
+        <v>9.87368446437771</v>
       </c>
       <c r="E30" t="n">
-        <v>9.63635780298556</v>
+        <v>8.4341466630788</v>
       </c>
       <c r="F30" t="n">
-        <v>10.2819364974699</v>
+        <v>12.2473746989013</v>
       </c>
       <c r="G30" t="n">
-        <v>11.6754551726479</v>
+        <v>12.1980318755539</v>
       </c>
       <c r="H30" t="n">
-        <v>13.2923069400292</v>
+        <v>13.1059630805493</v>
       </c>
       <c r="I30" t="n">
-        <v>13.7596361675171</v>
+        <v>15.2687811804049</v>
       </c>
       <c r="J30" t="n">
-        <v>14.5177718200798</v>
+        <v>14.2408290244183</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.50874906876104</v>
+        <v>6.11089074865362</v>
       </c>
       <c r="B31" t="n">
-        <v>7.04593399070533</v>
+        <v>8.26027477331408</v>
       </c>
       <c r="C31" t="n">
-        <v>8.18405474994666</v>
+        <v>8.7920489032999</v>
       </c>
       <c r="D31" t="n">
-        <v>9.41744286798351</v>
+        <v>9.13208988536552</v>
       </c>
       <c r="E31" t="n">
-        <v>10.0099104187935</v>
+        <v>10.2120536683113</v>
       </c>
       <c r="F31" t="n">
-        <v>10.7761202039942</v>
+        <v>9.62235736280638</v>
       </c>
       <c r="G31" t="n">
-        <v>12.3537175676331</v>
+        <v>11.7037520294764</v>
       </c>
       <c r="H31" t="n">
-        <v>12.2853921752265</v>
+        <v>13.0386918182749</v>
       </c>
       <c r="I31" t="n">
-        <v>13.6468000639614</v>
+        <v>13.3949737542848</v>
       </c>
       <c r="J31" t="n">
-        <v>14.7143063136271</v>
+        <v>15.1254423645507</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5.6612961384896</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7.18578973211508</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.85973491316718</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.4027041754558</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.72954800009061</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.3067678128151</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.5719215244514</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.2023957034369</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.031165870856</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.3172950790111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5.68114642358797</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6.95152799478771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.32951863853802</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.58745002342068</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.4955350361739</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.7740527242222</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.8573471102199</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12.48927855943</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.4788221392775</v>
+      </c>
+      <c r="J33" t="n">
+        <v>16.0962445497848</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6.56650150617525</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.22424122317083</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.34867599570798</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.521577456493</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.67439538176409</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.97722385038039</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.1759755349121</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12.9304351409672</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13.9362389145704</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.8168782388453</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5.38918789584955</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5.94603794839098</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.52301350267374</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.10940711401943</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.85971410179654</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11.6144130855276</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.8053805685738</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14.0827199016157</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13.1789861459277</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15.0804876885897</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5.22665392936832</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.96685369860485</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.95906020236865</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.54959522082566</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.5999886505906</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11.5649396384704</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11.9766776511066</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.5697838536959</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.4554396273596</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.9715828216164</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5.56114081361448</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.85695990058839</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.75252564686627</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.30858492882384</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.74987259615965</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11.1400952453817</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12.9268395677356</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.7676092532604</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12.8880822354954</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.7932757616844</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6.00559663881964</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7.06615327478482</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.36088381433759</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.66714746371394</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.336600771048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11.8038426517768</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.6015022036447</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13.3445102154932</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.3677784477517</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14.3523652877102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6.12231983762439</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.83656190614607</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.6895355387458</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.71510664182355</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.95225019784119</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.8716945380725</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12.1500924833064</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11.4282987681365</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.2325666880511</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.6272139045868</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6.6593680049418</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.36174435639306</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.37514984589193</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8.88255473104362</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10.3084426543823</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11.0754658774509</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.1915702783184</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12.0576711119585</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.6849434443412</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14.9248524823308</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5.2933047066528</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.64416734468431</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.81560745942734</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.0787033553456</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.3106996796625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.7251157343283</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.68430683891</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12.1385515455869</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.1920710025319</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.8150870248255</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.61883055853374</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.91771870969582</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.62581061124624</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.4021922432826</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.51903942372315</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10.6143116672996</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12.3105689045041</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12.6628724612808</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.1543847280244</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.9295369417621</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6.41166016076834</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.02515219053878</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.11322661452299</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.74007426312458</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.0671362188857</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.6357362922655</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12.8579044348435</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.5212442475846</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14.7320303009051</v>
+      </c>
+      <c r="J43" t="n">
+        <v>15.707068440596</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5.44366286339868</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7.98986734978484</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.19627772574966</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.90289789033343</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.75199316074747</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10.6463701232815</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.5355915936062</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13.6012204141024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.6113192998664</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15.3899351395364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.62973317304816</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.0647782290839</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.16655441514708</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.17577806137353</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.2446118764775</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10.0638829897846</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11.4598948701605</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.0063767798397</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13.6540192843775</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.7562852413885</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.20563244416722</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6.90022697696246</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.0499041525167</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.74814844924802</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10.8948346852343</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.73596876312393</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.87760397024262</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12.7810953551173</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14.4452493882798</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14.0289737349923</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.31192333044088</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7.52966661139889</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.8123517147191</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.69187149540812</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.4083115818506</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11.5640415517845</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.0075735445356</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12.4213393717247</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13.4748035616727</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16.6076136413309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6.18189464448764</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7.17305366967797</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.10670779399459</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.14064626253991</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10.7003949959888</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10.9380233976389</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10.9077215393419</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12.2989739075168</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13.3250354764808</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15.7210141302136</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6.96878022376763</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.08916269053932</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.33969111950136</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.33738210440927</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10.4221712538619</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.84177915646023</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11.6580407907235</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12.7427894650843</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14.6756818239424</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.6168491846373</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.82508668963571</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7.0759922046306</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.87322314397099</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.45121273439734</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.69412333286346</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11.1756818473091</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.1253641057092</v>
+      </c>
+      <c r="H50" t="n">
+        <v>12.8067238372042</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.5594043272693</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.8873537584832</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5.22675126411309</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.42697150630556</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.50681336877628</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10.4327573577161</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10.7281308455774</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10.6287933116318</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.6480271738032</v>
+      </c>
+      <c r="H51" t="n">
+        <v>13.0852469000091</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14.0379868554398</v>
+      </c>
+      <c r="J51" t="n">
+        <v>13.642990262546</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5.72816087471342</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.8405437675892</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.22641522960547</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.37970033354933</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10.4170274602504</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.7995494944937</v>
+      </c>
+      <c r="G52" t="n">
+        <v>12.5845962520994</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13.6581608229128</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15.5475828074149</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.3632641607978</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6.24818802866181</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.80971660538032</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.52173453506652</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10.2400896068262</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10.805353725338</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11.7096119462579</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.3327236252686</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13.6817965437837</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13.8833839728962</v>
+      </c>
+      <c r="J53" t="n">
+        <v>13.2893036446667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5.5333547737069</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.92930166436454</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.33107704767866</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8.36717942893866</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10.1432142516474</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12.1145581653504</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.6274565719795</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14.0768656361569</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15.3225830950564</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16.4032603420907</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6.2558098032012</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.46523599694977</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.90001008700176</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.90012946996723</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.84319036835433</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11.2044334938852</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12.8435764462798</v>
+      </c>
+      <c r="H55" t="n">
+        <v>12.3991150577335</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14.1053490956192</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14.754993798188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5.18977418036557</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7.54525215445042</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.94138591481885</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.21408778110988</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10.7342252865534</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11.293323601052</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.3560943332944</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.4808341065278</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.0725911464603</v>
+      </c>
+      <c r="J56" t="n">
+        <v>16.0250069115064</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6.88991258079117</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7.56172192956663</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.04103003517966</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.06915775354842</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.84619384186532</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9.70800532528313</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.9611598968224</v>
+      </c>
+      <c r="H57" t="n">
+        <v>12.71348876532</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.2913764149513</v>
+      </c>
+      <c r="J57" t="n">
+        <v>14.0771407431996</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7.00994366726001</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.95657101648119</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.80480218308258</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10.363451825682</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.6408343932669</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11.5109928103228</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.8538964238808</v>
+      </c>
+      <c r="H58" t="n">
+        <v>13.5937999660376</v>
+      </c>
+      <c r="I58" t="n">
+        <v>14.2002182282778</v>
+      </c>
+      <c r="J58" t="n">
+        <v>15.3288021132726</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5.42434514240845</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7.2293284332158</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.2349698409685</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.84783621519816</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10.0798141836494</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11.3512344446739</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.687261826183</v>
+      </c>
+      <c r="H59" t="n">
+        <v>13.5517955913942</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12.3938715014529</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15.0884091232556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4.9390028964971</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7.58298931134286</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.24214426243795</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10.9121108850859</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10.4360713567893</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10.8310909551871</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.0824388686053</v>
+      </c>
+      <c r="H60" t="n">
+        <v>11.4531060555396</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13.2883415851442</v>
+      </c>
+      <c r="J60" t="n">
+        <v>13.7379678946921</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5.54973663278705</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9.10232894240733</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.15269495455181</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9.23382949532231</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.71393951442567</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.6325359935603</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.9717196035039</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.3816173583528</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14.4861776289783</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15.0857437836744</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5.57517241176141</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.48175420154384</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.52282485737167</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9.88691400542521</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.5972149280783</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11.5402405807031</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.4165882800955</v>
+      </c>
+      <c r="H62" t="n">
+        <v>14.3521861704087</v>
+      </c>
+      <c r="I62" t="n">
+        <v>13.7721524575539</v>
+      </c>
+      <c r="J62" t="n">
+        <v>15.1266049070088</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6.37891298449392</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8.87081776394046</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.14863529900826</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9.56531477984482</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9.7203488251562</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.77506523368305</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12.393817825141</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12.8600833998417</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14.739030299414</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14.8104797608059</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5.07554503156392</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7.73374512130497</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8.8699622730824</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.04971643283992</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.79496248570573</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10.8610810499218</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.3370507078497</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13.8115509637229</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13.0706581554507</v>
+      </c>
+      <c r="J64" t="n">
+        <v>16.0594399934294</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6.70230915764009</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7.61956755160415</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.41878369212608</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.65058076706032</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.6730866129902</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.7565681514237</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12.8155697071284</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13.3059096379035</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14.6342301207523</v>
+      </c>
+      <c r="J65" t="n">
+        <v>15.3674554427359</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6.14352969751985</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.99273920697367</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.70049028466505</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.00246066936606</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10.7759151483972</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.0905206525184</v>
+      </c>
+      <c r="G66" t="n">
+        <v>11.7010761022995</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13.0230601335351</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13.6092009004501</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15.2524993863268</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6.53100076043009</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.09023841856793</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8.86430623585443</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10.4212008656007</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.94461710272562</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9.59754411386717</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12.4818921812254</v>
+      </c>
+      <c r="H67" t="n">
+        <v>12.9605180435815</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.5714307550887</v>
+      </c>
+      <c r="J67" t="n">
+        <v>16.1848509135434</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6.15224155374156</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.42401712050973</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.48218047377087</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.04944283067095</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10.8724393758337</v>
+      </c>
+      <c r="F68" t="n">
+        <v>11.1758702193586</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11.9356547369871</v>
+      </c>
+      <c r="H68" t="n">
+        <v>13.9823840896574</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.4544070421335</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15.3302045665516</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6.4660246925898</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.96489706853373</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.93379750562876</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.34231639062528</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9.45686678842864</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11.8543474700464</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10.2538523832332</v>
+      </c>
+      <c r="H69" t="n">
+        <v>13.5169211666399</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14.0309410100944</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.7500376161188</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5.74351875798089</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8.16157984330679</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.94488734817967</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.0835420388216</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9.73536867705528</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.45274743320903</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.7601462305326</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.3960496188061</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.9701202259639</v>
+      </c>
+      <c r="J70" t="n">
+        <v>14.9831193076889</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7.12109724230314</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.15639725372266</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.04590208370128</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8.66094809377701</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10.3151153642542</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.2678522483629</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.5447486953813</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14.1464477835975</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14.0651580761833</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.712127750089</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5.92217881746503</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.98408724650472</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.82465582689827</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8.7796705342681</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9.9250008366733</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.9375554348311</v>
+      </c>
+      <c r="G72" t="n">
+        <v>12.8025093525716</v>
+      </c>
+      <c r="H72" t="n">
+        <v>13.4358823212708</v>
+      </c>
+      <c r="I72" t="n">
+        <v>13.8765973903269</v>
+      </c>
+      <c r="J72" t="n">
+        <v>16.2842110111359</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5.7635426397425</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.67701263691693</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.2310334778926</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9.64558423514583</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9.97363897876701</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11.5243987613398</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11.6998862795371</v>
+      </c>
+      <c r="H73" t="n">
+        <v>13.2756063765957</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13.85797895612</v>
+      </c>
+      <c r="J73" t="n">
+        <v>14.6350777117855</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7.14798058120325</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.13114308472736</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.26339977854972</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.70800193160281</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.5591246225731</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10.4951761047498</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10.8191678589315</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12.7177896768542</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14.1707945176499</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14.1887225356431</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6.47950269477644</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.92259340426515</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.50663886110005</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.93919723830354</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10.174662309968</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10.5677320022585</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12.8079299646554</v>
+      </c>
+      <c r="H75" t="n">
+        <v>12.3763995841322</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.9733461569373</v>
+      </c>
+      <c r="J75" t="n">
+        <v>15.4215630105246</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5.762925498587</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.18733994493304</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.34375297751966</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.78622172415417</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.145499738825</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10.4704345720343</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.0330754404399</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.7556609962717</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14.3604680408502</v>
+      </c>
+      <c r="J76" t="n">
+        <v>14.4069795281041</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6.37399084134578</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.99686093035055</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.96100915457134</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.3670604446232</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9.93671146532046</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11.9922988861667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.130242613714</v>
+      </c>
+      <c r="H77" t="n">
+        <v>13.6757058227664</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14.2432715318693</v>
+      </c>
+      <c r="J77" t="n">
+        <v>15.347731429692</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6.23454353326009</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.07866004269481</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8.97522450257284</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10.4608178204926</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.62017868626429</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11.1059249819622</v>
+      </c>
+      <c r="G78" t="n">
+        <v>11.4617591724512</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13.930992744423</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13.7337534055229</v>
+      </c>
+      <c r="J78" t="n">
+        <v>14.9174758850694</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6.0630275303187</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.38749310883464</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.45588131698937</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9.0023539592203</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.1633287345826</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11.6105810117572</v>
+      </c>
+      <c r="G79" t="n">
+        <v>12.1195217812928</v>
+      </c>
+      <c r="H79" t="n">
+        <v>14.3490094631669</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12.3921210456917</v>
+      </c>
+      <c r="J79" t="n">
+        <v>14.643468793267</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4.86269364094313</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8.42288500611561</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.95611689091605</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.1391751274179</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.52076371618925</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12.7045664057081</v>
+      </c>
+      <c r="G80" t="n">
+        <v>12.6995110915828</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10.9941673738749</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14.2274706582438</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15.2787560488699</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5.8864402092146</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.67969329181936</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.83164843428667</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9.24992876924749</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.0850403196487</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11.3251754138098</v>
+      </c>
+      <c r="G81" t="n">
+        <v>13.634204981819</v>
+      </c>
+      <c r="H81" t="n">
+        <v>11.9680811659905</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15.1194608525736</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14.6453887536314</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5.02624262016462</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7.05957207192701</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.48888494278749</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9.06526239791662</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.85971207894054</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.1342641671263</v>
+      </c>
+      <c r="G82" t="n">
+        <v>13.1847869977967</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11.3293887402341</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13.4182649471702</v>
+      </c>
+      <c r="J82" t="n">
+        <v>14.4088857720631</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5.23119092801873</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.45096335253758</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.52448066743394</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9.49099405181815</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.15448795127729</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10.3548237142751</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12.2002414310374</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.8717422318119</v>
+      </c>
+      <c r="I83" t="n">
+        <v>14.2522083497751</v>
+      </c>
+      <c r="J83" t="n">
+        <v>15.2142964868361</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5.65482771413875</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.13853453233233</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.50637381427404</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10.0467956495341</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10.3134739780214</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11.1796536757013</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.8213972013502</v>
+      </c>
+      <c r="H84" t="n">
+        <v>12.6705426325881</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15.1741055263892</v>
+      </c>
+      <c r="J84" t="n">
+        <v>14.6844074108219</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7.6663108611314</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.65642551184747</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.42626030613568</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.02364588154268</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9.18781346571406</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11.5163938105593</v>
+      </c>
+      <c r="G85" t="n">
+        <v>12.1790345492713</v>
+      </c>
+      <c r="H85" t="n">
+        <v>12.4513831709222</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13.5844525742631</v>
+      </c>
+      <c r="J85" t="n">
+        <v>15.220067831114</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7.81682025955288</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.02617001301221</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6.72344001922179</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.86308689775989</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.21849186993116</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.5231532509461</v>
+      </c>
+      <c r="G86" t="n">
+        <v>11.6588960863357</v>
+      </c>
+      <c r="H86" t="n">
+        <v>13.4266144252926</v>
+      </c>
+      <c r="I86" t="n">
+        <v>14.6010055055169</v>
+      </c>
+      <c r="J86" t="n">
+        <v>15.1532955808665</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5.86417175069882</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.29049979055445</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.43797012816879</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.24981263674175</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10.0770665049681</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.3492360013276</v>
+      </c>
+      <c r="G87" t="n">
+        <v>11.710214435107</v>
+      </c>
+      <c r="H87" t="n">
+        <v>12.563827946896</v>
+      </c>
+      <c r="I87" t="n">
+        <v>14.2406358941667</v>
+      </c>
+      <c r="J87" t="n">
+        <v>14.002305290698</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5.58575068155088</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.66032826288841</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8.7326580327152</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.29222209082691</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.8673072398406</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.7524694060213</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.83122620307093</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13.3462759015242</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13.1905679647953</v>
+      </c>
+      <c r="J88" t="n">
+        <v>18.5148373721587</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6.33876290612355</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.04345088033762</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8.47490630104928</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.4585194719535</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.86584948648013</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12.3347904473013</v>
+      </c>
+      <c r="G89" t="n">
+        <v>11.2571501972183</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12.5885341347488</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13.5234262611971</v>
+      </c>
+      <c r="J89" t="n">
+        <v>15.8992553467321</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5.99631369467725</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5.92761679752932</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8.39649961417695</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.11585719522417</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.76416915266399</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9.95154711391589</v>
+      </c>
+      <c r="G90" t="n">
+        <v>11.8328678130165</v>
+      </c>
+      <c r="H90" t="n">
+        <v>13.7915310146005</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15.8349100487842</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14.3428406716396</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5.84410481600493</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.04545562895517</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.57797703349623</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.52980059453015</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.4317166230722</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11.4049106684635</v>
+      </c>
+      <c r="G91" t="n">
+        <v>13.5792715329955</v>
+      </c>
+      <c r="H91" t="n">
+        <v>13.0240490636593</v>
+      </c>
+      <c r="I91" t="n">
+        <v>14.9360017272805</v>
+      </c>
+      <c r="J91" t="n">
+        <v>14.3646489142916</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7.22288436760232</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.37967830958739</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.00669629922072</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.66923453260881</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8.32408931569504</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11.247606839957</v>
+      </c>
+      <c r="G92" t="n">
+        <v>10.3529405695353</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12.6818285213773</v>
+      </c>
+      <c r="I92" t="n">
+        <v>14.4865200836982</v>
+      </c>
+      <c r="J92" t="n">
+        <v>15.8478892189868</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5.82459190297363</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.83968792843507</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8.90140679199865</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.97781303119288</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10.1594446326924</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11.7860733494521</v>
+      </c>
+      <c r="G93" t="n">
+        <v>12.3548786256219</v>
+      </c>
+      <c r="H93" t="n">
+        <v>12.9016635515502</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13.0653266243989</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14.7393336940818</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7.52269344190157</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.36809306256688</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.28814224411405</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.25388583133378</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10.3182556377836</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11.9244960274864</v>
+      </c>
+      <c r="G94" t="n">
+        <v>11.0062361548789</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13.3735290611329</v>
+      </c>
+      <c r="I94" t="n">
+        <v>14.3949690086313</v>
+      </c>
+      <c r="J94" t="n">
+        <v>15.2789804332349</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6.78699192282116</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8.19542509461909</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.62824754887895</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9.34556919762795</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.6296061013912</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10.5809647349495</v>
+      </c>
+      <c r="G95" t="n">
+        <v>11.6725337154604</v>
+      </c>
+      <c r="H95" t="n">
+        <v>11.5989513681287</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14.1911869889394</v>
+      </c>
+      <c r="J95" t="n">
+        <v>15.3148615142434</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.30018486516783</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.44506909208807</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8.28288098466428</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.94064680405138</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9.40463484050662</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10.5228445055101</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11.9991716783132</v>
+      </c>
+      <c r="H96" t="n">
+        <v>12.2342170393582</v>
+      </c>
+      <c r="I96" t="n">
+        <v>13.5221817321338</v>
+      </c>
+      <c r="J96" t="n">
+        <v>15.3617866470289</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5.65821983910198</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.5713102297054</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.61020512945276</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.15333008212886</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9.22443058892667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11.0018088967913</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10.9034394299675</v>
+      </c>
+      <c r="H97" t="n">
+        <v>14.638958500054</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14.5754225445955</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14.7123983167942</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>6.7161915721848</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.30857208457686</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.25271340879459</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.53034269934814</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.71611200252903</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.6536604984509</v>
+      </c>
+      <c r="G98" t="n">
+        <v>11.9946208834952</v>
+      </c>
+      <c r="H98" t="n">
+        <v>13.392486679699</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13.9554816470567</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.1189312939384</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4.99620628426557</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.7900365493167</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.4011205288089</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.27557764327008</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9.16289308331535</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.7810218228586</v>
+      </c>
+      <c r="G99" t="n">
+        <v>11.9509583443542</v>
+      </c>
+      <c r="H99" t="n">
+        <v>13.290639848062</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13.7541630142114</v>
+      </c>
+      <c r="J99" t="n">
+        <v>16.4662598053816</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4.7962954465503</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.30516627432014</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.69224078517028</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.14998725770028</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.97840368771621</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.4178976629183</v>
+      </c>
+      <c r="G100" t="n">
+        <v>11.1588797730756</v>
+      </c>
+      <c r="H100" t="n">
+        <v>13.9103329132801</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13.1589786978176</v>
+      </c>
+      <c r="J100" t="n">
+        <v>15.3301003626311</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>7.28580255316915</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.79426843003596</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.20976745938421</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.15221866589601</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.59878693641793</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11.4972229917066</v>
+      </c>
+      <c r="G101" t="n">
+        <v>12.7029608408309</v>
+      </c>
+      <c r="H101" t="n">
+        <v>12.6328510856118</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.5799776363346</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15.3839456603073</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6.76898439690982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8.14624569861209</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.9712605636765</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9.55657514093656</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.7145657084404</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9.60596650110843</v>
+      </c>
+      <c r="G102" t="n">
+        <v>13.0129835318219</v>
+      </c>
+      <c r="H102" t="n">
+        <v>13.0289039478961</v>
+      </c>
+      <c r="I102" t="n">
+        <v>14.6043713248759</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13.4377598032813</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6.62441749654836</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.05350730685711</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.45890586144705</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.32565871737018</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.9285501868379</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10.46439594426</v>
+      </c>
+      <c r="G103" t="n">
+        <v>12.4137705416991</v>
+      </c>
+      <c r="H103" t="n">
+        <v>13.0064392022248</v>
+      </c>
+      <c r="I103" t="n">
+        <v>14.1632727485039</v>
+      </c>
+      <c r="J103" t="n">
+        <v>16.0112395917838</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6.08641928957272</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.64681458902097</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.79369082303869</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.47838923605919</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9.60413487301071</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.2651303265311</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12.8842528100282</v>
+      </c>
+      <c r="H104" t="n">
+        <v>12.0876456884625</v>
+      </c>
+      <c r="I104" t="n">
+        <v>14.6081413093048</v>
+      </c>
+      <c r="J104" t="n">
+        <v>15.6643601071439</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.83873297279435</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.65579529151738</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.92387990088509</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9.24254594798384</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10.3240205525519</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.8092631087025</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12.0673180970248</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14.0437146106737</v>
+      </c>
+      <c r="I105" t="n">
+        <v>13.0482087242112</v>
+      </c>
+      <c r="J105" t="n">
+        <v>13.9456870038665</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5.53232072948224</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8.37503622817756</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.93023052484431</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.45792437909472</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.1899603624135</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11.2077447399229</v>
+      </c>
+      <c r="G106" t="n">
+        <v>12.1453733667679</v>
+      </c>
+      <c r="H106" t="n">
+        <v>13.1725869559309</v>
+      </c>
+      <c r="I106" t="n">
+        <v>13.8496700582125</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14.8198124024044</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5.13435176520124</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.59381229689636</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8.4663377748297</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.88474393534845</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10.3002099251643</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11.1489129273708</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12.2357362743788</v>
+      </c>
+      <c r="H107" t="n">
+        <v>13.0074751236336</v>
+      </c>
+      <c r="I107" t="n">
+        <v>13.998409740478</v>
+      </c>
+      <c r="J107" t="n">
+        <v>15.47180800851</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5.51477046546175</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.57290241490776</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9.57088382100729</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9.00308699273252</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.96509454059518</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11.0159759412363</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11.8477622013483</v>
+      </c>
+      <c r="H108" t="n">
+        <v>13.3450526609439</v>
+      </c>
+      <c r="I108" t="n">
+        <v>13.8078875972587</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14.5476587151605</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6.66006881569662</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.32049907153273</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.89077590768205</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.9970124178097</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10.9109284825287</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11.8740003750777</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13.1091595275591</v>
+      </c>
+      <c r="H109" t="n">
+        <v>12.4994835522809</v>
+      </c>
+      <c r="I109" t="n">
+        <v>13.9835545167581</v>
+      </c>
+      <c r="J109" t="n">
+        <v>15.0428556731878</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4.4571123152881</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.5963187936099</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.35581407854202</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9.96243186630304</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.75795381721015</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11.7635112634732</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12.030193043923</v>
+      </c>
+      <c r="H110" t="n">
+        <v>11.6654706617097</v>
+      </c>
+      <c r="I110" t="n">
+        <v>13.9810531931582</v>
+      </c>
+      <c r="J110" t="n">
+        <v>14.8315873398935</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6.67587956904605</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.81230725262967</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.07249530403046</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10.0905098496805</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10.2553201946444</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.4225606407345</v>
+      </c>
+      <c r="G111" t="n">
+        <v>11.1565188677808</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12.6622703576653</v>
+      </c>
+      <c r="I111" t="n">
+        <v>14.6290706311649</v>
+      </c>
+      <c r="J111" t="n">
+        <v>14.3820923574856</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4.87993951771355</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.98302981600621</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.59672747389279</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.32306307599778</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10.2125005893788</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10.9876636311264</v>
+      </c>
+      <c r="G112" t="n">
+        <v>14.0847996579361</v>
+      </c>
+      <c r="H112" t="n">
+        <v>13.2357066968693</v>
+      </c>
+      <c r="I112" t="n">
+        <v>13.8712805409223</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14.824922796269</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6.52293025207585</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.45291030939691</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.82498960621407</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.6445544016554</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10.2942407918285</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11.3312913650197</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12.0471629858397</v>
+      </c>
+      <c r="H113" t="n">
+        <v>13.1898484976413</v>
+      </c>
+      <c r="I113" t="n">
+        <v>13.4557046294847</v>
+      </c>
+      <c r="J113" t="n">
+        <v>16.0563507172427</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6.326906423643</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.75588670605125</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.20287322801396</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.70652296106898</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8.99875672100779</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11.9092547333515</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11.8012099324572</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13.3604960398404</v>
+      </c>
+      <c r="I114" t="n">
+        <v>15.2590544220905</v>
+      </c>
+      <c r="J114" t="n">
+        <v>16.0013167340701</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6.1395006690478</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8.05267112077912</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.76942569583018</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.72704245737027</v>
+      </c>
+      <c r="E115" t="n">
+        <v>10.6024017912289</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9.9514199477529</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11.9747032703326</v>
+      </c>
+      <c r="H115" t="n">
+        <v>13.461817385604</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15.336227018186</v>
+      </c>
+      <c r="J115" t="n">
+        <v>13.9422731033296</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6.30524571377299</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.73309492328716</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.6502924673082</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.45891167530815</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10.1853968664978</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11.3988203414834</v>
+      </c>
+      <c r="G116" t="n">
+        <v>11.9049383477921</v>
+      </c>
+      <c r="H116" t="n">
+        <v>14.6108606896342</v>
+      </c>
+      <c r="I116" t="n">
+        <v>13.6891228671047</v>
+      </c>
+      <c r="J116" t="n">
+        <v>13.3022856373837</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5.29608559761751</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.21933275719415</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8.46503168817019</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10.070885737536</v>
+      </c>
+      <c r="E117" t="n">
+        <v>10.8296627670148</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11.4511825476223</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10.9561692890534</v>
+      </c>
+      <c r="H117" t="n">
+        <v>12.9576321901302</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12.9209214203892</v>
+      </c>
+      <c r="J117" t="n">
+        <v>15.0174345800924</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5.58559005661811</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.1882930344713</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.62645781694403</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.70482836116249</v>
+      </c>
+      <c r="E118" t="n">
+        <v>8.63321728471769</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.79624298612427</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10.8021442956206</v>
+      </c>
+      <c r="H118" t="n">
+        <v>13.7996666993905</v>
+      </c>
+      <c r="I118" t="n">
+        <v>14.0983281981722</v>
+      </c>
+      <c r="J118" t="n">
+        <v>15.5335826632664</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4.8506704912994</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.36079362272272</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.05508091645622</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.0558167791269</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.65813619323524</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11.7890685808687</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12.4251075751376</v>
+      </c>
+      <c r="H119" t="n">
+        <v>12.7614804929968</v>
+      </c>
+      <c r="I119" t="n">
+        <v>14.0655038979231</v>
+      </c>
+      <c r="J119" t="n">
+        <v>16.9040286169777</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6.13117482814931</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.1910434938419</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8.18852602039098</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8.0427133234439</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.69072183812623</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10.940423058848</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12.7059996872569</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12.9168163386092</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13.5483806564004</v>
+      </c>
+      <c r="J120" t="n">
+        <v>15.0778919855232</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5.71830672524546</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.37440689467592</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.88103249507991</v>
+      </c>
+      <c r="D121" t="n">
+        <v>10.2578527600635</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10.0905278770767</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11.8225319883405</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11.1531190817279</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13.1206107529542</v>
+      </c>
+      <c r="I121" t="n">
+        <v>13.835687134782</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15.2191745924664</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7.51137643649538</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.03120642530824</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.86132620395684</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.0880868484763</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.3840115994393</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11.1488319300419</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11.4731600096926</v>
+      </c>
+      <c r="H122" t="n">
+        <v>13.1099090999322</v>
+      </c>
+      <c r="I122" t="n">
+        <v>14.657550614298</v>
+      </c>
+      <c r="J122" t="n">
+        <v>14.3433435772136</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6.29003819996411</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.28596817166945</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.44713352449566</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.7794887832123</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10.7210449862694</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9.33002020582235</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11.9265626911285</v>
+      </c>
+      <c r="H123" t="n">
+        <v>13.995226588947</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.1785256969404</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14.6877107788739</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7.76890507930839</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.15385111040803</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.66694459769047</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.23763330275279</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.8116660190308</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10.7108335321225</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10.0658233706578</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14.6733725680102</v>
+      </c>
+      <c r="I124" t="n">
+        <v>14.2061027482113</v>
+      </c>
+      <c r="J124" t="n">
+        <v>15.3008320698655</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5.12956963261313</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.54852130470471</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.23988758233142</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.11601807343072</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8.44415075831678</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9.92493010204118</v>
+      </c>
+      <c r="G125" t="n">
+        <v>11.5511633248774</v>
+      </c>
+      <c r="H125" t="n">
+        <v>13.0357500497916</v>
+      </c>
+      <c r="I125" t="n">
+        <v>13.6539591718485</v>
+      </c>
+      <c r="J125" t="n">
+        <v>16.0844238040485</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6.32375351424516</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.83780883789808</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.93159390112906</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.76649140160962</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.83455276163581</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10.6019897675712</v>
+      </c>
+      <c r="G126" t="n">
+        <v>13.5138163155174</v>
+      </c>
+      <c r="H126" t="n">
+        <v>13.6550792538155</v>
+      </c>
+      <c r="I126" t="n">
+        <v>13.8943587874471</v>
+      </c>
+      <c r="J126" t="n">
+        <v>13.7215832054655</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5.65644496352017</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.079053177486</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.39419181886605</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8.36120001148878</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10.1601774734857</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.5846249615843</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13.4593954883131</v>
+      </c>
+      <c r="H127" t="n">
+        <v>12.6347635319016</v>
+      </c>
+      <c r="I127" t="n">
+        <v>13.2939423284623</v>
+      </c>
+      <c r="J127" t="n">
+        <v>14.3145927810467</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5.23661838426666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.59852448636756</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.73444079002454</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10.3999259358844</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8.57990774410756</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10.526586561602</v>
+      </c>
+      <c r="G128" t="n">
+        <v>11.9386187786111</v>
+      </c>
+      <c r="H128" t="n">
+        <v>13.1775292228146</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12.7517044513097</v>
+      </c>
+      <c r="J128" t="n">
+        <v>16.0105122496593</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5.83985218065454</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.81570554026667</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.81548492076254</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.4163219924061</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.89139270724709</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10.4206479345603</v>
+      </c>
+      <c r="G129" t="n">
+        <v>11.5107397383023</v>
+      </c>
+      <c r="H129" t="n">
+        <v>14.1813947133722</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12.9965963001423</v>
+      </c>
+      <c r="J129" t="n">
+        <v>15.2683379959534</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5.35633960711772</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.14750678252294</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.96449322318516</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8.63746166579165</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.16520978470075</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10.3307647952416</v>
+      </c>
+      <c r="G130" t="n">
+        <v>11.2685089025272</v>
+      </c>
+      <c r="H130" t="n">
+        <v>12.3404828256969</v>
+      </c>
+      <c r="I130" t="n">
+        <v>13.2210252821059</v>
+      </c>
+      <c r="J130" t="n">
+        <v>15.2241696745362</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5.27437445596142</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.85217797887468</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.19863356076788</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.41614746765801</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.15899343055766</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10.7533766472904</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12.9125762105125</v>
+      </c>
+      <c r="H131" t="n">
+        <v>12.8127672260016</v>
+      </c>
+      <c r="I131" t="n">
+        <v>14.5818481614151</v>
+      </c>
+      <c r="J131" t="n">
+        <v>15.6429245415776</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5.78752395983891</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.8044312628898</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8.28668129657854</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.18517737754455</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8.28179327374989</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11.0915588509983</v>
+      </c>
+      <c r="G132" t="n">
+        <v>12.2105811887742</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13.6902331443442</v>
+      </c>
+      <c r="I132" t="n">
+        <v>15.2047625306814</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14.9257200922783</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7.01772727284532</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.85108248943683</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.28573526702634</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.48200536063402</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.97163531092481</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10.5258832614019</v>
+      </c>
+      <c r="G133" t="n">
+        <v>11.7316122559495</v>
+      </c>
+      <c r="H133" t="n">
+        <v>14.1345198812622</v>
+      </c>
+      <c r="I133" t="n">
+        <v>14.0068309868857</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14.2060372261997</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5.66834447362715</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.45837322203533</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.44122970124431</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.20006029091381</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.1199930226822</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10.0377373125243</v>
+      </c>
+      <c r="G134" t="n">
+        <v>13.9702860294014</v>
+      </c>
+      <c r="H134" t="n">
+        <v>11.6436686623096</v>
+      </c>
+      <c r="I134" t="n">
+        <v>13.7524235060157</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14.3391836597916</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5.62012980842487</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.74077272019217</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.93048643369588</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.77123642713172</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.99005189180944</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10.0669788310387</v>
+      </c>
+      <c r="G135" t="n">
+        <v>12.1420720345985</v>
+      </c>
+      <c r="H135" t="n">
+        <v>13.6706260503068</v>
+      </c>
+      <c r="I135" t="n">
+        <v>13.5147205921239</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16.1295627424278</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6.78553975518282</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.21039147708051</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.37787331428665</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8.80440867632394</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.3964795030807</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11.0091874278678</v>
+      </c>
+      <c r="G136" t="n">
+        <v>10.9809985085465</v>
+      </c>
+      <c r="H136" t="n">
+        <v>13.1141598855223</v>
+      </c>
+      <c r="I136" t="n">
+        <v>13.1550010385725</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15.6281389430685</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>5.03567644746242</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.37802138754275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10.3095299416842</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.80447733180815</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.08404592636465</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11.7512661092626</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12.4470437653425</v>
+      </c>
+      <c r="H137" t="n">
+        <v>12.9726397642664</v>
+      </c>
+      <c r="I137" t="n">
+        <v>14.4365273151306</v>
+      </c>
+      <c r="J137" t="n">
+        <v>14.4726134298729</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5.13083509269106</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.54049004433756</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.96704876692744</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.87697895896876</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8.94631717371299</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10.4978312145545</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11.6696624577876</v>
+      </c>
+      <c r="H138" t="n">
+        <v>12.7134631085068</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12.9449234298052</v>
+      </c>
+      <c r="J138" t="n">
+        <v>16.2173901910732</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6.50872686616649</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.45669326856837</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.51905465142979</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.935375224371</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10.314711103772</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11.3060297490429</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.3844741183908</v>
+      </c>
+      <c r="H139" t="n">
+        <v>12.3805680250051</v>
+      </c>
+      <c r="I139" t="n">
+        <v>14.0235271567623</v>
+      </c>
+      <c r="J139" t="n">
+        <v>13.9376892299423</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5.96834016284263</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.02087847951278</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.9498367298259</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.64614040874068</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.74053002933885</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11.7619962861814</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11.0379296974323</v>
+      </c>
+      <c r="H140" t="n">
+        <v>14.0781118654401</v>
+      </c>
+      <c r="I140" t="n">
+        <v>15.0765312189495</v>
+      </c>
+      <c r="J140" t="n">
+        <v>15.8016364382328</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5.58873871549632</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7.33176573308404</v>
+      </c>
+      <c r="C141" t="n">
+        <v>8.87520540049032</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.25431113434761</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.64814859002412</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10.5324953078565</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11.3901945684755</v>
+      </c>
+      <c r="H141" t="n">
+        <v>12.0619065086503</v>
+      </c>
+      <c r="I141" t="n">
+        <v>14.6957362887127</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15.0896195485377</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4.48381918293572</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7.45729683797269</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.92285017095345</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.5648480408016</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.43849419648281</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10.4267411463672</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.4173900030898</v>
+      </c>
+      <c r="H142" t="n">
+        <v>13.7921963301254</v>
+      </c>
+      <c r="I142" t="n">
+        <v>13.9261438161774</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15.7271603350013</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6.26715383953116</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.86192312272498</v>
+      </c>
+      <c r="C143" t="n">
+        <v>8.74848790796821</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.33865172000295</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.49259992350381</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.8045527496911</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12.3288288465167</v>
+      </c>
+      <c r="H143" t="n">
+        <v>13.1371125370229</v>
+      </c>
+      <c r="I143" t="n">
+        <v>14.1540682462948</v>
+      </c>
+      <c r="J143" t="n">
+        <v>15.4210043356019</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7.84263949866978</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.73066649873805</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.31896519390446</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.22530974100995</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10.9220714051566</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9.96061729372829</v>
+      </c>
+      <c r="G144" t="n">
+        <v>12.5271068450582</v>
+      </c>
+      <c r="H144" t="n">
+        <v>12.3373098247329</v>
+      </c>
+      <c r="I144" t="n">
+        <v>13.8772438526485</v>
+      </c>
+      <c r="J144" t="n">
+        <v>14.9065670506929</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6.06238461242214</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.04681703878618</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.61318640522699</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.25772652740313</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10.0643063172593</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10.7149276375183</v>
+      </c>
+      <c r="G145" t="n">
+        <v>11.0969089754868</v>
+      </c>
+      <c r="H145" t="n">
+        <v>13.0615899562012</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14.0844507522371</v>
+      </c>
+      <c r="J145" t="n">
+        <v>14.5829062624697</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6.47226859394822</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.63530387679987</v>
+      </c>
+      <c r="C146" t="n">
+        <v>8.45727034383437</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.73927015773044</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10.0183834153119</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11.8358279119872</v>
+      </c>
+      <c r="G146" t="n">
+        <v>12.6485676138382</v>
+      </c>
+      <c r="H146" t="n">
+        <v>12.9026024019771</v>
+      </c>
+      <c r="I146" t="n">
+        <v>14.4916272152907</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15.5368067797063</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6.57008712817268</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.42110250310631</v>
+      </c>
+      <c r="C147" t="n">
+        <v>8.36278185911286</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.66157750931763</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10.2125440951835</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10.9492641347827</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12.2098164676015</v>
+      </c>
+      <c r="H147" t="n">
+        <v>12.1099991746533</v>
+      </c>
+      <c r="I147" t="n">
+        <v>14.2533433416335</v>
+      </c>
+      <c r="J147" t="n">
+        <v>16.7513661069123</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5.68698528300691</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7.10831962681741</v>
+      </c>
+      <c r="C148" t="n">
+        <v>8.14953305475877</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.76042113603715</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.5869470913807</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11.3397707024986</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12.4826964100547</v>
+      </c>
+      <c r="H148" t="n">
+        <v>11.7702722908198</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13.8975241538395</v>
+      </c>
+      <c r="J148" t="n">
+        <v>14.7760337127019</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5.67655331408086</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7.17943905524152</v>
+      </c>
+      <c r="C149" t="n">
+        <v>8.03905380715059</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.42990628546073</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.62380434250701</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10.3958378789198</v>
+      </c>
+      <c r="G149" t="n">
+        <v>12.8053042893551</v>
+      </c>
+      <c r="H149" t="n">
+        <v>15.3794723468149</v>
+      </c>
+      <c r="I149" t="n">
+        <v>14.1043338501475</v>
+      </c>
+      <c r="J149" t="n">
+        <v>14.6736383418762</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6.49892720406659</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.6192373703042</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7.97597112616154</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.89136547626704</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.79197440248421</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11.6081686317354</v>
+      </c>
+      <c r="G150" t="n">
+        <v>10.5438552424706</v>
+      </c>
+      <c r="H150" t="n">
+        <v>13.7036064340117</v>
+      </c>
+      <c r="I150" t="n">
+        <v>14.638578734947</v>
+      </c>
+      <c r="J150" t="n">
+        <v>13.983652023281</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5.63520315478794</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.78425919702929</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.22905592986584</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.08939353119503</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10.5980589135248</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9.91007638105956</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11.1218590592148</v>
+      </c>
+      <c r="H151" t="n">
+        <v>12.8990384248806</v>
+      </c>
+      <c r="I151" t="n">
+        <v>13.590083476654</v>
+      </c>
+      <c r="J151" t="n">
+        <v>14.8946132809221</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>6.60978918516811</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.26525355052843</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.56790061826368</v>
+      </c>
+      <c r="D152" t="n">
+        <v>8.12071210340092</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10.8071329594336</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.6413400174964</v>
+      </c>
+      <c r="G152" t="n">
+        <v>13.1078718478625</v>
+      </c>
+      <c r="H152" t="n">
+        <v>13.0112425760677</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.8587274031547</v>
+      </c>
+      <c r="J152" t="n">
+        <v>14.698088264689</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>7.0470228280313</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.06955881496608</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.1243312205813</v>
+      </c>
+      <c r="D153" t="n">
+        <v>8.66050431346165</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.86770949568155</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11.5581475137411</v>
+      </c>
+      <c r="G153" t="n">
+        <v>13.1268880622894</v>
+      </c>
+      <c r="H153" t="n">
+        <v>12.5226711070679</v>
+      </c>
+      <c r="I153" t="n">
+        <v>14.3939577979154</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15.1924074235012</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>6.43572571427142</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.70240288786155</v>
+      </c>
+      <c r="C154" t="n">
+        <v>8.0387409282101</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.66753911349552</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.94650519825472</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10.7312680137218</v>
+      </c>
+      <c r="G154" t="n">
+        <v>13.4783035719205</v>
+      </c>
+      <c r="H154" t="n">
+        <v>13.0184540094711</v>
+      </c>
+      <c r="I154" t="n">
+        <v>13.742528479333</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15.3107624672538</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>6.80118375372443</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.04512478770417</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.93992458562022</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.59514153434593</v>
+      </c>
+      <c r="E155" t="n">
+        <v>10.7157559463354</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10.3646641483455</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.5349659143359</v>
+      </c>
+      <c r="H155" t="n">
+        <v>13.6411787369864</v>
+      </c>
+      <c r="I155" t="n">
+        <v>14.0647488699063</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15.3410356870111</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>7.14742098032594</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.62880278399983</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.76098073452145</v>
+      </c>
+      <c r="D156" t="n">
+        <v>8.89759852891584</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8.06329271207299</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10.2568875978514</v>
+      </c>
+      <c r="G156" t="n">
+        <v>11.6358330167234</v>
+      </c>
+      <c r="H156" t="n">
+        <v>13.2157748008333</v>
+      </c>
+      <c r="I156" t="n">
+        <v>14.1602880859004</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15.0696325040116</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5.82747447461499</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8.4667371040587</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.26887038684625</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.54072319730746</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10.4167391584939</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10.7712354411517</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.6771591560687</v>
+      </c>
+      <c r="H157" t="n">
+        <v>12.2900945308812</v>
+      </c>
+      <c r="I157" t="n">
+        <v>14.7620079251763</v>
+      </c>
+      <c r="J157" t="n">
+        <v>15.0823090159682</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4.50134611052612</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.78819187522881</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.51444355938681</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.9619654081952</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8.81929142070493</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9.36235423411952</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13.2037137416621</v>
+      </c>
+      <c r="H158" t="n">
+        <v>13.4194911923386</v>
+      </c>
+      <c r="I158" t="n">
+        <v>14.1892262676857</v>
+      </c>
+      <c r="J158" t="n">
+        <v>14.349310922671</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5.7907183149617</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.71345628248338</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.92765478462802</v>
+      </c>
+      <c r="D159" t="n">
+        <v>8.611812480758</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.37376207528905</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11.6025681116696</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.1393287178579</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11.8242370547849</v>
+      </c>
+      <c r="I159" t="n">
+        <v>13.7209949469294</v>
+      </c>
+      <c r="J159" t="n">
+        <v>15.3096632979005</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5.26627329715737</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.17572165925077</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.73232711505369</v>
+      </c>
+      <c r="D160" t="n">
+        <v>8.52145605826206</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.5585427120926</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11.5165267860341</v>
+      </c>
+      <c r="G160" t="n">
+        <v>10.5988294279388</v>
+      </c>
+      <c r="H160" t="n">
+        <v>14.3404566488043</v>
+      </c>
+      <c r="I160" t="n">
+        <v>13.8849746106336</v>
+      </c>
+      <c r="J160" t="n">
+        <v>14.4872097353558</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5.50909370621304</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8.35994685757256</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.60921244251092</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8.90417585720601</v>
+      </c>
+      <c r="E161" t="n">
+        <v>10.1226291649861</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11.5243570465903</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11.4396901056216</v>
+      </c>
+      <c r="H161" t="n">
+        <v>12.8871396815446</v>
+      </c>
+      <c r="I161" t="n">
+        <v>13.2986936901359</v>
+      </c>
+      <c r="J161" t="n">
+        <v>15.4008453588602</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5.65243668222099</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7.09087203476349</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.70200295951344</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.38919578924274</v>
+      </c>
+      <c r="E162" t="n">
+        <v>10.031718452273</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10.7015413719613</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.7309114354707</v>
+      </c>
+      <c r="H162" t="n">
+        <v>12.4308177492197</v>
+      </c>
+      <c r="I162" t="n">
+        <v>14.0426483244567</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15.9060552602677</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>7.67798950486108</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.89927201789025</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8.33394085331599</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.4817065842648</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.3411288187061</v>
+      </c>
+      <c r="F163" t="n">
+        <v>11.6937071184462</v>
+      </c>
+      <c r="G163" t="n">
+        <v>11.8614835219662</v>
+      </c>
+      <c r="H163" t="n">
+        <v>13.3835046132937</v>
+      </c>
+      <c r="I163" t="n">
+        <v>13.6344524190868</v>
+      </c>
+      <c r="J163" t="n">
+        <v>13.7672445585265</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>6.61548922444405</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.26036963717191</v>
+      </c>
+      <c r="C164" t="n">
+        <v>8.76123865306078</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.792735349725</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.94784847501077</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10.5996373054762</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11.4866421359353</v>
+      </c>
+      <c r="H164" t="n">
+        <v>12.2182175787945</v>
+      </c>
+      <c r="I164" t="n">
+        <v>13.3792697145632</v>
+      </c>
+      <c r="J164" t="n">
+        <v>15.5009588351308</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>6.37709749577615</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.9519371128799</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7.03252065181146</v>
+      </c>
+      <c r="D165" t="n">
+        <v>8.98725918998307</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.11264560300712</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.0630531006016</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.7505542307992</v>
+      </c>
+      <c r="H165" t="n">
+        <v>13.471136944543</v>
+      </c>
+      <c r="I165" t="n">
+        <v>13.5531052765232</v>
+      </c>
+      <c r="J165" t="n">
+        <v>16.2713456551139</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>6.14626779036874</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.71029071680412</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.29314111670081</v>
+      </c>
+      <c r="D166" t="n">
+        <v>8.24900411903388</v>
+      </c>
+      <c r="E166" t="n">
+        <v>10.9059599926082</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9.70926329103635</v>
+      </c>
+      <c r="G166" t="n">
+        <v>12.6146708259124</v>
+      </c>
+      <c r="H166" t="n">
+        <v>13.8570779660388</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15.130976434617</v>
+      </c>
+      <c r="J166" t="n">
+        <v>14.5869834459613</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>6.72572983052194</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.65642285333768</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7.1889213867499</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.7740603297552</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.1627293431603</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10.9326040364414</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12.5904884189009</v>
+      </c>
+      <c r="H167" t="n">
+        <v>12.5460744709266</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15.2928322475335</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15.0681890813447</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5.49054038653662</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7.27718130332208</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.06454619231727</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.8561069266058</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10.4095550252188</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11.2109108350953</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.3799367660471</v>
+      </c>
+      <c r="H168" t="n">
+        <v>13.8427449089935</v>
+      </c>
+      <c r="I168" t="n">
+        <v>14.4452644978446</v>
+      </c>
+      <c r="J168" t="n">
+        <v>14.5851254201434</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5.79161992944092</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.23056599699783</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7.73402807765568</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.8193573028266</v>
+      </c>
+      <c r="E169" t="n">
+        <v>10.4619181198353</v>
+      </c>
+      <c r="F169" t="n">
+        <v>10.7014217851535</v>
+      </c>
+      <c r="G169" t="n">
+        <v>12.6017101611747</v>
+      </c>
+      <c r="H169" t="n">
+        <v>14.0721939855195</v>
+      </c>
+      <c r="I169" t="n">
+        <v>14.3776450604218</v>
+      </c>
+      <c r="J169" t="n">
+        <v>14.8619258366354</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>7.47866590161011</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.27654238329122</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.50973483593588</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.4051635085516</v>
+      </c>
+      <c r="E170" t="n">
+        <v>10.7269615027981</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11.2020011393914</v>
+      </c>
+      <c r="G170" t="n">
+        <v>11.493985114819</v>
+      </c>
+      <c r="H170" t="n">
+        <v>14.0348204242599</v>
+      </c>
+      <c r="I170" t="n">
+        <v>14.1753860738798</v>
+      </c>
+      <c r="J170" t="n">
+        <v>14.9411568110279</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6.47496099791035</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.3382147615929</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.14665194779614</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8.53283613299591</v>
+      </c>
+      <c r="E171" t="n">
+        <v>10.6592756143436</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11.6578346466494</v>
+      </c>
+      <c r="G171" t="n">
+        <v>10.6103548861361</v>
+      </c>
+      <c r="H171" t="n">
+        <v>12.2856457280205</v>
+      </c>
+      <c r="I171" t="n">
+        <v>14.2999319679934</v>
+      </c>
+      <c r="J171" t="n">
+        <v>14.8018360978971</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>6.1493222865408</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7.56375214371872</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.02756401870568</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9.53674510974321</v>
+      </c>
+      <c r="E172" t="n">
+        <v>10.0842525764983</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11.9109281350572</v>
+      </c>
+      <c r="G172" t="n">
+        <v>13.9189233254683</v>
+      </c>
+      <c r="H172" t="n">
+        <v>12.0817392551031</v>
+      </c>
+      <c r="I172" t="n">
+        <v>13.6845583591341</v>
+      </c>
+      <c r="J172" t="n">
+        <v>15.7769493024984</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>6.58767207298524</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7.09465670963534</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.43903777959505</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.99366853043696</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10.5429385987488</v>
+      </c>
+      <c r="F173" t="n">
+        <v>11.0043107937947</v>
+      </c>
+      <c r="G173" t="n">
+        <v>11.4247400292602</v>
+      </c>
+      <c r="H173" t="n">
+        <v>13.3014833663447</v>
+      </c>
+      <c r="I173" t="n">
+        <v>14.3182448740049</v>
+      </c>
+      <c r="J173" t="n">
+        <v>14.2163917651402</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>6.79069190731371</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8.12193596215788</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.88968737240303</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10.8168548743576</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8.67857682866772</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11.2354715667776</v>
+      </c>
+      <c r="G174" t="n">
+        <v>11.2183025978541</v>
+      </c>
+      <c r="H174" t="n">
+        <v>11.752403338199</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13.8559881341751</v>
+      </c>
+      <c r="J174" t="n">
+        <v>15.6221964376024</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6.20036546505874</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.43296015715453</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.32188513376367</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9.5961682747402</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9.68511769009635</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10.1274541167885</v>
+      </c>
+      <c r="G175" t="n">
+        <v>12.4716166388344</v>
+      </c>
+      <c r="H175" t="n">
+        <v>14.4809243430542</v>
+      </c>
+      <c r="I175" t="n">
+        <v>14.3251875565773</v>
+      </c>
+      <c r="J175" t="n">
+        <v>14.5997748498143</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>7.95361539923745</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.64081974440894</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7.87666670862243</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.52012522484234</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.94571928787068</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9.34851830529106</v>
+      </c>
+      <c r="G176" t="n">
+        <v>12.0959433086167</v>
+      </c>
+      <c r="H176" t="n">
+        <v>12.1440963221139</v>
+      </c>
+      <c r="I176" t="n">
+        <v>14.9317311715374</v>
+      </c>
+      <c r="J176" t="n">
+        <v>16.4401299966036</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4.87428542997275</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.70567621097799</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.44521391650386</v>
+      </c>
+      <c r="D177" t="n">
+        <v>8.86809368215797</v>
+      </c>
+      <c r="E177" t="n">
+        <v>10.8860155010467</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11.6592877874291</v>
+      </c>
+      <c r="G177" t="n">
+        <v>11.7248093695106</v>
+      </c>
+      <c r="H177" t="n">
+        <v>12.8656775050907</v>
+      </c>
+      <c r="I177" t="n">
+        <v>13.0552810394652</v>
+      </c>
+      <c r="J177" t="n">
+        <v>14.8406670008915</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5.10953109499452</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.0485022377168</v>
+      </c>
+      <c r="C178" t="n">
+        <v>7.6301689966914</v>
+      </c>
+      <c r="D178" t="n">
+        <v>10.2695642378371</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.20913445223032</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9.91101112864519</v>
+      </c>
+      <c r="G178" t="n">
+        <v>11.2958898556281</v>
+      </c>
+      <c r="H178" t="n">
+        <v>13.2056106481526</v>
+      </c>
+      <c r="I178" t="n">
+        <v>14.6104675867907</v>
+      </c>
+      <c r="J178" t="n">
+        <v>15.2183444083869</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6.82870963690054</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7.43396097270273</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.68936978913814</v>
+      </c>
+      <c r="D179" t="n">
+        <v>8.79650781351894</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9.18050129293791</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11.5940541682644</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12.205480120756</v>
+      </c>
+      <c r="H179" t="n">
+        <v>12.5006961040779</v>
+      </c>
+      <c r="I179" t="n">
+        <v>13.7800190090205</v>
+      </c>
+      <c r="J179" t="n">
+        <v>14.8888150308238</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>6.10671923443511</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7.54016027581673</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.13115779010404</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.44088082503099</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.25360267289559</v>
+      </c>
+      <c r="F180" t="n">
+        <v>11.0054177064225</v>
+      </c>
+      <c r="G180" t="n">
+        <v>12.2721877711535</v>
+      </c>
+      <c r="H180" t="n">
+        <v>13.820214346884</v>
+      </c>
+      <c r="I180" t="n">
+        <v>14.0729411295705</v>
+      </c>
+      <c r="J180" t="n">
+        <v>16.0474322941905</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>6.73636259670353</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7.30037809818177</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.20548330336046</v>
+      </c>
+      <c r="D181" t="n">
+        <v>8.55592211365123</v>
+      </c>
+      <c r="E181" t="n">
+        <v>10.3371583189839</v>
+      </c>
+      <c r="F181" t="n">
+        <v>11.5402583218255</v>
+      </c>
+      <c r="G181" t="n">
+        <v>11.7763592655736</v>
+      </c>
+      <c r="H181" t="n">
+        <v>12.0268747425963</v>
+      </c>
+      <c r="I181" t="n">
+        <v>12.5228025661145</v>
+      </c>
+      <c r="J181" t="n">
+        <v>16.0119563944182</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>6.16362590682683</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.38610365815335</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.58953772323266</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8.77544635669591</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.32821504710564</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10.8168217484092</v>
+      </c>
+      <c r="G182" t="n">
+        <v>11.0196684564183</v>
+      </c>
+      <c r="H182" t="n">
+        <v>14.0458170160513</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14.7965490716606</v>
+      </c>
+      <c r="J182" t="n">
+        <v>15.5542203991849</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>6.76153858074481</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7.55625402566452</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.54466106748981</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.25802033992171</v>
+      </c>
+      <c r="E183" t="n">
+        <v>10.8260708490865</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.2897580926837</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12.0455495562442</v>
+      </c>
+      <c r="H183" t="n">
+        <v>13.7900683231135</v>
+      </c>
+      <c r="I183" t="n">
+        <v>12.8499105378288</v>
+      </c>
+      <c r="J183" t="n">
+        <v>14.9832451065844</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6.09004092315318</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.20472350238617</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.8900332798504</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.04803567360013</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9.22746866193839</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11.3840032970637</v>
+      </c>
+      <c r="G184" t="n">
+        <v>11.969620522866</v>
+      </c>
+      <c r="H184" t="n">
+        <v>13.9748632418118</v>
+      </c>
+      <c r="I184" t="n">
+        <v>15.2456063110781</v>
+      </c>
+      <c r="J184" t="n">
+        <v>14.1818184159479</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>6.42193890288608</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.92390178311048</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.62929321797768</v>
+      </c>
+      <c r="D185" t="n">
+        <v>8.95572382016848</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10.024972638688</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10.9131822319554</v>
+      </c>
+      <c r="G185" t="n">
+        <v>11.9421941275692</v>
+      </c>
+      <c r="H185" t="n">
+        <v>12.0335212103623</v>
+      </c>
+      <c r="I185" t="n">
+        <v>14.0992830268939</v>
+      </c>
+      <c r="J185" t="n">
+        <v>14.6070231414715</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6.09183546149858</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.2060058838285</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.74897407518163</v>
+      </c>
+      <c r="D186" t="n">
+        <v>7.3532943364119</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9.58784391545203</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10.3673803939039</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12.9347540204983</v>
+      </c>
+      <c r="H186" t="n">
+        <v>12.3559868615661</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14.9225914601207</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15.1070990674662</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6.07842707520104</v>
+      </c>
+      <c r="B187" t="n">
+        <v>7.50422706914046</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.24900840431919</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8.61812753020964</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9.43954637509058</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9.86054601312905</v>
+      </c>
+      <c r="G187" t="n">
+        <v>13.1696894616486</v>
+      </c>
+      <c r="H187" t="n">
+        <v>12.0105544462276</v>
+      </c>
+      <c r="I187" t="n">
+        <v>14.2908418944726</v>
+      </c>
+      <c r="J187" t="n">
+        <v>14.0166250379648</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>6.32686482385375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.64758102720154</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.33215261926448</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7.88228027092271</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.52267988882255</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10.2347438545368</v>
+      </c>
+      <c r="G188" t="n">
+        <v>11.7668611488992</v>
+      </c>
+      <c r="H188" t="n">
+        <v>13.9806629065955</v>
+      </c>
+      <c r="I188" t="n">
+        <v>13.3333019060422</v>
+      </c>
+      <c r="J188" t="n">
+        <v>15.6705758113031</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5.70444911346751</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.62169140113112</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.90764207648381</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.13575895055413</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9.99973338512225</v>
+      </c>
+      <c r="F189" t="n">
+        <v>11.6738049884677</v>
+      </c>
+      <c r="G189" t="n">
+        <v>12.0322094271738</v>
+      </c>
+      <c r="H189" t="n">
+        <v>12.990486787677</v>
+      </c>
+      <c r="I189" t="n">
+        <v>14.6265172034774</v>
+      </c>
+      <c r="J189" t="n">
+        <v>15.7530367597197</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>6.10632593195409</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.8784278593418</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.06818229667051</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.39329280349822</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.11312342136044</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11.9930940358928</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12.297554947952</v>
+      </c>
+      <c r="H190" t="n">
+        <v>12.1731654430338</v>
+      </c>
+      <c r="I190" t="n">
+        <v>14.0152111338837</v>
+      </c>
+      <c r="J190" t="n">
+        <v>15.7338779161568</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6.15416127646128</v>
+      </c>
+      <c r="B191" t="n">
+        <v>7.0669348117423</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.36743149840988</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.5764041818452</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9.24748784169344</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10.2203937026417</v>
+      </c>
+      <c r="G191" t="n">
+        <v>12.0500043049478</v>
+      </c>
+      <c r="H191" t="n">
+        <v>13.038342120842</v>
+      </c>
+      <c r="I191" t="n">
+        <v>13.4404586381533</v>
+      </c>
+      <c r="J191" t="n">
+        <v>15.8938960766815</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5.70034012168377</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.21500868313049</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.09844933351685</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.06633651453939</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9.25540739560344</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11.1765490101031</v>
+      </c>
+      <c r="G192" t="n">
+        <v>13.2120202728165</v>
+      </c>
+      <c r="H192" t="n">
+        <v>12.7091005823594</v>
+      </c>
+      <c r="I192" t="n">
+        <v>15.3616591264503</v>
+      </c>
+      <c r="J192" t="n">
+        <v>14.8641923478604</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4.55169870274189</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6.90401504363521</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.71837661510667</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9.33067205818038</v>
+      </c>
+      <c r="E193" t="n">
+        <v>10.0194516554784</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10.8275624876023</v>
+      </c>
+      <c r="G193" t="n">
+        <v>12.6847349889906</v>
+      </c>
+      <c r="H193" t="n">
+        <v>12.0846702290022</v>
+      </c>
+      <c r="I193" t="n">
+        <v>13.5094243187495</v>
+      </c>
+      <c r="J193" t="n">
+        <v>15.7722010532752</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5.60287025984865</v>
+      </c>
+      <c r="B194" t="n">
+        <v>7.71651656275872</v>
+      </c>
+      <c r="C194" t="n">
+        <v>7.29261346538482</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.20835111951124</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.83021528513837</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11.2167093075951</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12.4436023310833</v>
+      </c>
+      <c r="H194" t="n">
+        <v>13.0105313090392</v>
+      </c>
+      <c r="I194" t="n">
+        <v>14.6861257587947</v>
+      </c>
+      <c r="J194" t="n">
+        <v>15.2656116529376</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6.27072781796879</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.56229035351948</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.01354442686396</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.49014489830537</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.97436795929844</v>
+      </c>
+      <c r="F195" t="n">
+        <v>11.2728639788755</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12.7176124338154</v>
+      </c>
+      <c r="H195" t="n">
+        <v>11.9572991550304</v>
+      </c>
+      <c r="I195" t="n">
+        <v>13.9506507929538</v>
+      </c>
+      <c r="J195" t="n">
+        <v>14.2881339849443</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4.91839005318788</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.71802507771132</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7.81417098975062</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.07082825940799</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.37027127462532</v>
+      </c>
+      <c r="F196" t="n">
+        <v>9.8397529204559</v>
+      </c>
+      <c r="G196" t="n">
+        <v>10.9442019161883</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11.7832858592312</v>
+      </c>
+      <c r="I196" t="n">
+        <v>14.0079456023281</v>
+      </c>
+      <c r="J196" t="n">
+        <v>14.3554609204445</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6.77454529602824</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.20529836728049</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.57060808661489</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.43646301912102</v>
+      </c>
+      <c r="E197" t="n">
+        <v>10.8456842732667</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10.8166548167968</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12.9720286863421</v>
+      </c>
+      <c r="H197" t="n">
+        <v>14.0623488631314</v>
+      </c>
+      <c r="I197" t="n">
+        <v>13.5669323176978</v>
+      </c>
+      <c r="J197" t="n">
+        <v>14.3594533324262</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5.96114435680234</v>
+      </c>
+      <c r="B198" t="n">
+        <v>7.45006527194804</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7.11633703665233</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.21625738457889</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10.7641042384389</v>
+      </c>
+      <c r="F198" t="n">
+        <v>10.8477564925401</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12.3150830767024</v>
+      </c>
+      <c r="H198" t="n">
+        <v>12.8662109246525</v>
+      </c>
+      <c r="I198" t="n">
+        <v>14.2521175459639</v>
+      </c>
+      <c r="J198" t="n">
+        <v>14.4677792812253</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>5.57573105477722</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.44022901485194</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.99094775077166</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.14363130461984</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7.94198253872515</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10.8055947979252</v>
+      </c>
+      <c r="G199" t="n">
+        <v>10.4055366436671</v>
+      </c>
+      <c r="H199" t="n">
+        <v>12.9005353197507</v>
+      </c>
+      <c r="I199" t="n">
+        <v>15.2061937413215</v>
+      </c>
+      <c r="J199" t="n">
+        <v>15.0916731425144</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>4.7812080875067</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7.92134792496793</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.35182064965369</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.27086010969184</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10.786246467324</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11.4749720776742</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12.2429235349752</v>
+      </c>
+      <c r="H200" t="n">
+        <v>14.0668646832168</v>
+      </c>
+      <c r="I200" t="n">
+        <v>14.8802630744068</v>
+      </c>
+      <c r="J200" t="n">
+        <v>16.0781725235999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5.52252441700788</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7.37084873390964</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.02723023325753</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.0141065685614</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9.51440712372371</v>
+      </c>
+      <c r="F201" t="n">
+        <v>11.5643913245075</v>
+      </c>
+      <c r="G201" t="n">
+        <v>11.3048883756685</v>
+      </c>
+      <c r="H201" t="n">
+        <v>13.3882658852126</v>
+      </c>
+      <c r="I201" t="n">
+        <v>14.9205765819106</v>
+      </c>
+      <c r="J201" t="n">
+        <v>13.6261507614065</v>
       </c>
     </row>
   </sheetData>
